--- a/Number Notation Expansion Utilities/Number Notation Utlities.xlsx
+++ b/Number Notation Expansion Utilities/Number Notation Utlities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Number Notation Expansion Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14E6266-1A58-2240-8F67-1935C8763372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0970635E-14C8-824C-A9D8-A329594A5305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="14260" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CONVERT_TEMP_C_TO_F">_xlfn.LAMBDA(_xlpm.C,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision) + (_xlpm.precision &lt; 0), 3, _xlpm.precision), _xlpm.fahrenheit, _xlpm.C * (9 / 5) + 32, ROUND(_xlpm.fahrenheit, _xlpm.precision)))</definedName>
-    <definedName name="CONVERT_TEMP_F_TO_C">_xlfn.LAMBDA(_xlpm.F,_xlop.precision, _xlfn.LET(_xlpm.precision, IF(OR(_xlfn.ISOMITTED(_xlpm.precision), _xlpm.precision &lt; 0), 3, _xlpm.precision), _xlpm.celsius, (_xlpm.F - 32) * (5 / 9), ROUND(_xlpm.celsius, _xlpm.precision)))</definedName>
-    <definedName name="FORMAT_FEET_AND_INCHES">_xlfn.LAMBDA(_xlpm.input,_xlop.style,_xlop.denom,_xlop.precision, _xlfn.LET(_xlpm.style, IF((_xlfn.ISOMITTED(_xlpm.style)) + (_xlpm.style &gt; 1), 0, _xlpm.style), _xlpm.denom, IF(_xlfn.ISOMITTED(_xlpm.denom), 16, TRUNC(_xlpm.denom)), _xlpm.precision, IF(_xlfn.ISOMITTED(_xlpm.precision), 3, _xlpm.precision), _xlpm.feet, QUOTIENT(_xlpm.input, 1), _xlpm.feet_mant, MOD(_xlpm.input, 1), _xlpm.decimal_inch, ROUND(_xlpm.feet_mant * 12, _xlpm.precision), _xlpm.inch_int, TRUNC(_xlpm.decimal_inch), _xlpm.inch_dec, _xlpm.decimal_inch - _xlpm.inch_int, _xlpm.inch_numer, TRUNC(_xlpm.inch_dec * _xlpm.denom), _xlpm.comfact, GCD(_xlpm.inch_numer, _xlpm.denom), _xlpm.numerfinal, _xlpm.inch_numer / _xlpm.comfact, _xlpm.denomfinal, _xlpm.denom / _xlpm.comfact, _xlpm.test, MOD(_xlpm.inch_numer, _xlpm.denom), _xlpm.frac_inch, IF(_xlpm.test &lt;&gt; 0, _xlpm.numerfinal &amp; "/" &amp; _xlpm.denomfinal, ""), _xlpm.int_inch, IF(_xlpm.inch_int = 0, "", _xlpm.inch_int), _xlpm.combo, _xlfn.IFS(AND(_xlpm.int_inch = "", _xlpm.frac_inch = ""), _xlpm.feet &amp; CHAR(39), AND(_xlpm.int_inch = "", _xlpm.frac_inch &lt;&gt; ""), _xlpm.feet &amp; CHAR(39) &amp; CHAR(32) &amp; _xlpm.frac_inch &amp; CHAR(34), AND(_xlpm.int_inch &lt;&gt; "", _xlpm.frac_inch &lt;&gt; ""), _xlpm.feet &amp; CHAR(39) &amp; CHAR(32) &amp; _xlpm.int_inch &amp; "-" &amp; _xlpm.frac_inch &amp; CHAR(34), TRUE, _xlpm.feet &amp; CHAR(39) &amp; CHAR(32) &amp; _xlpm.int_inch &amp; CHAR(34)), _xlpm.standard, _xlpm.feet &amp; CHAR(39) &amp; CHAR(32) &amp; _xlpm.decimal_inch &amp; CHAR(34), _xlpm.output, _xlfn.SWITCH(_xlpm.style, 0, _xlpm.standard, 1, _xlpm.combo), _xlpm.output))</definedName>
-    <definedName name="FORMAT_INCH_FRACTION">_xlfn.LAMBDA(_xlpm.input,_xlop.denom, _xlfn.LET(_xlpm.denom, IF(_xlfn.ISOMITTED(_xlpm.denom), 32, TRUNC(_xlpm.denom)), _xlpm.inch, QUOTIENT(_xlpm.input, 1), _xlpm.inch_mant, MOD(_xlpm.input, 1), _xlpm.inch_numer, TRUNC(_xlpm.inch_mant * _xlpm.denom), _xlpm.comfact, GCD(_xlpm.inch_numer, _xlpm.denom), _xlpm.numerfinal, _xlpm.inch_numer / _xlpm.comfact, _xlpm.denomfinal, _xlpm.denom / _xlpm.comfact, _xlpm.has_fraction, MOD(_xlpm.inch_numer, _xlpm.denom) &lt;&gt; 0, _xlpm.frac_inch, IF(_xlpm.has_fraction, _xlpm.numerfinal &amp; "/" &amp; _xlpm.denomfinal, ""), _xlpm.output, IF(_xlpm.inch_numer = 0, _xlpm.inch &amp; CHAR(34), _xlpm.inch &amp; "-" &amp; _xlpm.frac_inch &amp; CHAR(34)), _xlpm.output))</definedName>
+    <definedName name="NUM_ONLY">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.get_codes, CODE(MID(LOWER(_xlpm.input), _xlfn.SEQUENCE(LEN(_xlpm.input)), 1)), _xlpm.make_num, SUM(--_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.z, _xlpm.z = 46))), _xlpm.output, IF(_xlpm.make_num &gt;= 2, _xlfn.CONCAT(_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.x, IF(AND(OR(_xlpm.x &lt; 48, _xlpm.x &gt; 57), _xlpm.x &lt;&gt; 46), "", CHAR(_xlpm.x))))), IFERROR(VALUE(_xlfn.CONCAT(_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.x, IF(AND(OR(_xlpm.x &lt; 48, _xlpm.x &gt; 57), _xlpm.x &lt;&gt; 46), "", CHAR(_xlpm.x)))))), "#NONE!")), _xlpm.output))</definedName>
+    <definedName name="NUMNOTE_ENGINEERING">_xlfn.LAMBDA(_xlpm.input,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 2, _xlpm.prec), _xlpm.power, TRUNC(LOG10(ABS(_xlpm.input))), _xlpm.divisor, _xlpm.power - MOD(_xlpm.power, 3), _xlpm.adjust, 10 ^ _xlpm.divisor, _xlpm.value, ROUND(_xlpm.input / _xlpm.adjust, _xlpm.prec), _xlpm.suff, "E" &amp; IF(_xlpm.divisor &gt;= 0, "+", "") &amp; TEXT(_xlpm.divisor, "00"), _xlpm.output, TEXT(_xlpm.value, "0." &amp; REPT("0", _xlpm.prec)) &amp; _xlpm.suff, _xlpm.output))</definedName>
+    <definedName name="NUMNOTE_MAGNITUDE">_xlfn.LAMBDA(_xlpm.input,_xlop.decprec, _xlfn.LET(_xlpm.max, 30, _xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.decprec), 3, _xlpm.decprec), _xlpm.input, ABS(_xlpm.input), _xlpm.power, TRUNC(LOG(_xlpm.input)), _xlpm.category, MOD(_xlpm.power, 3), _xlpm.divisor, _xlfn.SWITCH(_xlpm.category, 0, _xlpm.power, 1, _xlpm.power - 1, 2, _xlpm.power - 2), _xlpm.adjust, IF(_xlpm.divisor &lt;= _xlpm.max, 10 ^ _xlpm.divisor, 10 ^ _xlpm.max), _xlpm.value, _xlpm.input / _xlpm.adjust, _xlpm.suff, _xlfn.SWITCH(_xlpm.divisor, 0, "—", 3, "k", 6, "M", 9, "G", 12, "T", 15, "P", 18, "E", 21, "Z", 24, "Y", 27, "R", 30, "Q", "??"), _xlpm.output, FIXED(_xlpm.value, _xlpm.decprec, TRUE) &amp; " " &amp; _xlpm.suff, _xlpm.output))</definedName>
+    <definedName name="NUMNOTE_POWERTAG">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(_xlfn.ISOMITTED(_xlpm.mode), 0, _xlpm.mode), _xlpm.mag, TRUNC(LOG10(_xlpm.input)), _xlpm.result, _xlfn.SWITCH(_xlpm.mode, 0, "E+" &amp; TEXT(_xlpm.mag, "00"), 1, "10^" &amp; _xlpm.mag, "Invalid mode"), _xlpm.result))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -462,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="B3:D17"/>
+  <dimension ref="B3:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -479,114 +479,105 @@
     <col min="8" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3">CONVERT_TEMP_C_TO_F(100)</f>
-        <v>212</v>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="str" cm="1">
+        <f t="array" ref="B3">NUMNOTE_ENGINEERING(456789)</f>
+        <v>456.79E+03</v>
       </c>
       <c r="D3" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B3)</f>
-        <v>=CONVERT_TEMP_C_TO_F(100)</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1" cm="1">
-        <f t="array" ref="B4">CONVERT_TEMP_C_TO_F(0)</f>
-        <v>32</v>
+        <v>=NUMNOTE_ENGINEERING(456789)</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="str" cm="1">
+        <f t="array" ref="B4">NUMNOTE_ENGINEERING(456789,5)</f>
+        <v>456.78900E+03</v>
       </c>
       <c r="D4" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
-        <v>=CONVERT_TEMP_C_TO_F(0)</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1" cm="1">
-        <f t="array" ref="B6">CONVERT_TEMP_F_TO_C(212)</f>
-        <v>100</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B6)</f>
-        <v>=CONVERT_TEMP_F_TO_C(212)</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1" cm="1">
-        <f t="array" ref="B7">CONVERT_TEMP_F_TO_C(32)</f>
-        <v>0</v>
+        <v>=NUMNOTE_ENGINEERING(456789,5)</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="F6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="1">
+        <f>TRUNC(LOG(TRUNC(F6))+1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1" t="str" cm="1">
+        <f t="array" ref="B7">NUMNOTE_MAGNITUDE(456789)</f>
+        <v>456.789 k</v>
       </c>
       <c r="D7" s="1" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
-        <v>=CONVERT_TEMP_F_TO_C(32)</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="str" cm="1">
-        <f t="array" ref="B10">FORMAT_FEET_AND_INCHES(3.33)</f>
-        <v>3' 3.96"</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=FORMAT_FEET_AND_INCHES(3.33)</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>=NUMNOTE_MAGNITUDE(456789)</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1" t="str" cm="1">
+        <f t="array" ref="B8">NUMNOTE_MAGNITUDE(456789,5)</f>
+        <v>456.78900 k</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
+        <v>=NUMNOTE_MAGNITUDE(456789,5)</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="1" t="str" cm="1">
-        <f t="array" ref="B11">FORMAT_FEET_AND_INCHES(3.33,,,5)</f>
-        <v>3' 3.96"</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B11)</f>
-        <v>=FORMAT_FEET_AND_INCHES(3.33,,,5)</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <f t="array" ref="B11">NUMNOTE_POWERTAG(456789,0)</f>
+        <v>E+05</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="1" t="str" cm="1">
-        <f t="array" ref="B12">FORMAT_FEET_AND_INCHES(3.45,1)</f>
-        <v>3' 5-3/8"</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B12)</f>
-        <v>=FORMAT_FEET_AND_INCHES(3.45,1)</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1" t="str" cm="1">
-        <f t="array" ref="B13">FORMAT_FEET_AND_INCHES(3.45,1,16)</f>
-        <v>3' 5-3/8"</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B13)</f>
-        <v>=FORMAT_FEET_AND_INCHES(3.45,1,16)</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="str" cm="1">
-        <f t="array" ref="B14">FORMAT_FEET_AND_INCHES(3.45,1,16,5)</f>
-        <v>3' 5-3/8"</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B14)</f>
-        <v>=FORMAT_FEET_AND_INCHES(3.45,1,16,5)</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="str" cm="1">
-        <f t="array" ref="B16">FORMAT_INCH_FRACTION(2.369)</f>
-        <v>2-11/32"</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B16)</f>
-        <v>=FORMAT_INCH_FRACTION(2.369)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="str" cm="1">
-        <f t="array" ref="B17">FORMAT_INCH_FRACTION(2.369,64)</f>
-        <v>2-23/64"</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B17)</f>
-        <v>=FORMAT_INCH_FRACTION(2.369,64)</v>
+        <f t="array" ref="B12">NUMNOTE_POWERTAG(456789,1)</f>
+        <v>10^5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1" cm="1">
+        <f t="array" ref="B16">NUM_ONLY(186282)</f>
+        <v>186282</v>
+      </c>
+      <c r="D16" s="1" t="e" cm="1">
+        <f t="array" ref="D16:D22">VALUE({"a";"1";"b";".";"2";"c";"3"})</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +586,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABDAE8ATgBWAEUAUgBUAF8AVABFAE0AUABfAEMAXwBUAE8AXwBGAFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAGEAIABDAGUAbABzAGkAdQBzACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAdgBhAGwAdQBlACAAdABvACAARgBhAGgAcgBlAG4AaABlAGkAdAAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAHIAZQBwAHIAZQBzAGUAbgB0AGkAbgBnACAAdABoAGUAIABlAHEAdQBpAHYAYQBsAGUAbgB0ACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAaQBuACAARgBhAGgAcgBlAG4AaABlAGkAdAAsAFwAbgAgACAAIABvAHAAdABpAG8AbgBhAGwAbAB5ACAAcgBvAHUAbgBkAGUAZAAgAHQAbwAgAGEAIABnAGkAdgBlAG4AIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAQwAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAZQBtAHAAZQByAGEAdAB1AHIAZQAgAGkAbgAgAGQAZQBnAHIAZQBlAHMAIABDAGUAbABzAGkAdQBzAFwAbgAgACAAIAAtACAAcAByAGUAYwBpAHMAaQBvAG4AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABOAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAGEAbABsAHkAIABkAGUAZgBhAHUAbAB0AHMAIAB0AG8AIAAzACAAZABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAaQBmACAAbgBvAG4AZQAgAHAAcgBvAHYAaQBkAGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAIABpAG4AcAB1AHQAXABuACAAIAAgAC0AIABPAHUAdABwAHUAdAAgAGkAcwAgAG4AdQBtAGUAcgBpAGMALAAgAHMAdQBpAHQAYQBiAGwAZQAgAGYAbwByACAAZgB1AHIAdABoAGUAcgAgAGMAbwBtAHAAdQB0AGEAdABpAG8AbgAgAG8AcgAgAGQAaQBzAHAAbABhAHkAXABuACAAIAAgAC0AIABVAHMAZQBzACAAcwB0AGEAbgBkAGEAcgBkACAAZgBvAHIAbQB1AGwAYQA6ACAARgAgAD0AIAAoAEMAIADXACAAOQAvADUAKQAgACsAIAAzADIAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAEMATwBOAFYARQBSAFQAXwBUAEUATQBQAF8AQwBfAFQATwBfAEYAKAAwACkAIACSISAAMwAyAFwAbgAgACAAIAAgACAAQwBPAE4AVgBFAFIAVABfAFQARQBNAFAAXwBDAF8AVABPAF8ARgAoADEAMAAwACwAIAAxACkAIACSISAAMgAxADIALgAwAFwAbgAgACAAIAAgACAAQwBPAE4AVgBFAFIAVABfAFQARQBNAFAAXwBDAF8AVABPAF8ARgAoAC0ANAAwACkAIACSISAALQA0ADAALgAwADAAMABcAG4AKgAvAFwAbgBcAG4AQwBPAE4AVgBFAFIAVABfAFQARQBNAFAAXwBDAF8AVABPAF8ARgAgAD0AIABMAEEATQBCAEQAQQAoAEMALAAgAFsAcAByAGUAYwBpAHMAaQBvAG4AXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABWAGEAbABpAGQAYQB0AGUAIABvAHIAIABkAGUAZgBhAHUAbAB0ACAAdABoAGUAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHYAYQBsAHUAZQBcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkAIAArACAAKABwAHIAZQBjAGkAcwBpAG8AbgAgADwAIAAwACkALAAgADMALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbgB2AGUAcgBzAGkAbwBuACAAZgBvAHIAbQB1AGwAYQBcAG4AIAAgACAAIAAgACAAIAAgAGYAYQBoAHIAZQBuAGgAZQBpAHQALAAgAEMAIAAqACAAKAA5ACAALwAgADUAKQAgACsAIAAzADIALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABGAGkAbgBhAGwAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAAgACAAIAAgAFIATwBVAE4ARAAoAGYAYQBoAHIAZQBuAGgAZQBpAHQALAAgAHAAcgBlAGMAaQBzAGkAbwBuACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAEMATwBOAFYARQBSAFQAXwBUAEUATQBQAF8ARgBfAFQATwBfAEMAOgBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbgB2AGUAcgB0AHMAIABhACAAdABlAG0AcABlAHIAYQB0AHUAcgBlACAAZgByAG8AbQAgAGQAZQBnAHIAZQBlAHMAIABGAGEAaAByAGUAbgBoAGUAaQB0ACAAdABvACAAZABlAGcAcgBlAGUAcwAgAEMAZQBsAHMAaQB1AHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIABpAG4AIABkAGUAZwByAGUAZQBzACAAQwBlAGwAcwBpAHUAcwAsACAAbwBwAHQAaQBvAG4AYQBsAGwAeQAgAHIAbwB1AG4AZABlAGQAIAB0AG8AIABhACAAcwBwAGUAYwBpAGYAaQBlAGQAIABuAHUAbQBiAGUAcgAgAG8AZgAgAGQAZQBjAGkAbQBhAGwAIABwAGwAYQBjAGUAcwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAARgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIAB0AGUAbQBwAGUAcgBhAHQAdQByAGUAIABpAG4AIABkAGUAZwByAGUAZQBzACAARgBhAGgAcgBlAG4AaABlAGkAdABcAG4AIAAgACAALQAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIAByAG8AdQBuAGQAIAB0AGgAZQAgAHIAZQBzAHUAbAB0ACAAdABvACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAASQBmACAAcAByAGUAYwBpAHMAaQBvAG4AIABpAHMAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZAAgACgAZQAuAGcALgAsACAAbgBlAGcAYQB0AGkAdgBlACkALAAgAGkAdAAgAGQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADMALgBcAG4AIAAgACAALQAgAFUAcwBlAHMAIAB0AGgAZQAgAHMAdABhAG4AZABhAHIAZAAgAGYAbwByAG0AdQBsAGEAOgAgAEMAIAA9ACAAKABGACAAEiIgADMAMgApACAA1wAgADUARCA5AFwAbgAgACAAIAAtACAASABhAG4AZABsAGUAcwAgAG4AZQBnAGEAdABpAHYAZQAgAGEAbgBkACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHQAZQBtAHAAZQByAGEAdAB1AHIAZQBzACAAYwBvAHIAcgBlAGMAdABsAHkALgBcAG4AIAAgACAALQAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIAB1AG4AaQB0ACAAYwBvAG4AdgBlAHIAcwBpAG8AbgBzACAAaQBuACAAZABhAHQAYQAgAGMAbABlAGEAbgB1AHAALAAgAGQAaQBzAHAAbABhAHkALAAgAG8AcgAgAHIAZQBwAG8AcgB0AGkAbgBnAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAQwBPAE4AVgBFAFIAVABfAFQARQBNAFAAXwBGAF8AVABPAF8AQwAoADMAMgApACAAkiEgADAAXABuACAAIAAgAEMATwBOAFYARQBSAFQAXwBUAEUATQBQAF8ARgBfAFQATwBfAEMAKAAyADEAMgAsACAAMgApACAAkiEgADEAMAAwAC4AMAAwAFwAbgAgACAAIABDAE8ATgBWAEUAUgBUAF8AVABFAE0AUABfAEYAXwBUAE8AXwBDACgALQA0ADAAKQAgAJIhIAAtADQAMAAuADAAMAAwAFwAbgAqAC8AXABuAFwAbgBDAE8ATgBWAEUAUgBUAF8AVABFAE0AUABfAEYAXwBUAE8AXwBDACAAPQAgAEwAQQBNAEIARABBACgARgAsACAAWwBwAHIAZQBjAGkAcwBpAG8AbgBdACwAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEQAZQBmAGEAdQBsAHQAIABwAHIAZQBjAGkAcwBpAG8AbgAgAHQAbwAgADMAIABpAGYAIABvAG0AaQB0AHQAZQBkACAAbwByACAAaQBuAHYAYQBsAGkAZABcAG4AIAAgACAAIAAgACAAIAAgAHAAcgBlAGMAaQBzAGkAbwBuACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAaQBzAGkAbwBuACkALAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAPAAgADAAKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBuAHYAZQByAHMAaQBvAG4AIABjAGEAbABjAHUAbABhAHQAaQBvAG4AXABuACAAIAAgACAAIAAgACAAIABjAGUAbABzAGkAdQBzACwAIAAoAEYAIAAtACAAMwAyACkAIAAqACAAKAA1ACAALwAgADkAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAbwB1AG4AZAAgAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACAAIAAgACAAUgBPAFUATgBEACgAYwBlAGwAcwBpAHUAcwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABGAE8AUgBNAEEAVABfAEYARQBFAFQAXwBBAE4ARABfAEkATgBDAEgARQBTADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG4AdgBlAHIAdABzACAAYQAgAGQAZQBjAGkAbQBhAGwAIABmAG8AbwB0ACAAdgBhAGwAdQBlACAAaQBuAHQAbwAgAGYAZQBlAHQAIABhAG4AZAAgAGkAbgBjAGgAZQBzACwAXABuACAAIAAgAGUAaQB0AGgAZQByACAAYQBzACAAYQAgAGQAZQBjAGkAbQBhAGwALQBpAG4AYwBoACAAZgBvAHIAbQBhAHQAIABvAHIAIABhAHMAIABmAGUAZQB0ACAAdwBpAHQAaAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABpAG4AYwBoAGUAcwAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIABBACAAZgBvAHIAbQBhAHQAdABlAGQAIABzAHQAcgBpAG4AZwAgAGwAaQBrAGUAIABcACIANgAnACAANQAuADIANQBcACIAXAAiACAAbwByACAAXAAiADYAJwAgADUALQAxAC8ANABcACIAXAAiAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAGQAZQBjAGkAbQBhAGwAIAB2AGEAbAB1AGUAIABpAG4AIABmAGUAZQB0ACAAKABlAC4AZwAuACwAIAA2AC4ANAAzADcANQApAFwAbgAgACAAIAAtACAAcwB0AHkAbABlACAAKABvAHAAdABpAG8AbgBhAGwAKQA6AFwAbgAgACAAIAAgACAAIAAgADAAIAA9ACAAdQBzAGUAIABkAGUAYwBpAG0AYQBsACAAaQBuAGMAaABlAHMAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAxACAAPQAgAHUAcwBlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAGkAbgBjAGgAZQBzACAAKABlAC4AZwAuACwAIAA1AC0AMQAvADQAXAAiACkAXABuACAAIAAgAC0AIABkAGUAbgBvAG0AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAbgBvAG0AaQBuAGEAdABvAHIAIABmAG8AcgAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABpAG4AYwBoAGUAcwAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAxADYAKQBcAG4AIAAgACAALQAgAHAAcgBlAGMAaQBzAGkAbwBuACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAbABhAGMAZQBzACAAZgBvAHIAIABzAHQAeQBsAGUAIAAwACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADMAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVABoAGUAIABgAHAAcgBlAGMAaQBzAGkAbwBuAGAAIABwAGEAcgBhAG0AZQB0AGUAcgAgAGkAcwAgAG8AbgBsAHkAIAB1AHMAZQBkACAAZgBvAHIAIABgAHMAdAB5AGwAZQAgAD0AIAAwAGAAXABuACAAIAAgACAAIABhAG4AZAAgAGgAYQBzACAAbgBvACAAZQBmAGYAZQBjAHQAIAB3AGgAZQBuACAAZABpAHMAcABsAGEAeQBpAG4AZwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABpAG4AYwBoAGUAcwAuAFwAbgAgACAAIAAtACAARgByAGEAYwB0AGkAbwBuAHMAIABhAHIAZQAgAGEAdQB0AG8AbQBhAHQAaQBjAGEAbABsAHkAIABzAGkAbQBwAGwAaQBmAGkAZQBkAC4AXABuACAAIAAgAC0AIABPAHUAdABwAHUAdAAgAGEAbAB3AGEAeQBzACAAaQBuAGMAbAB1AGQAZQBzACAAZgBlAGUAdAAgACgAZQAuAGcALgAsACAAXAAiADYAJwBcACIAIABwAHIAZQBmAGkAeAApAC4AXABuACAAIAAgAC0AIABDAG8AbQBwAGEAdABpAGIAbABlACAAdwBpAHQAaAAgAGIAbwB0AGgAIABwAG8AcwBpAHQAaQB2AGUAIABhAG4AZAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABpAG4AcAB1AHQAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQBzADoAXABuACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEYARQBFAFQAXwBBAE4ARABfAEkATgBDAEgARQBTACgANgAuADQAMwA3ADUAKQBcAG4AIAAgACAAIAAgAJIhIABcACIANgAnACAANQAuADIANQBcACIAXAAiAFwAbgBcAG4AIAAgACAAIAAgAEYATwBSAE0AQQBUAF8ARgBFAEUAVABfAEEATgBEAF8ASQBOAEMASABFAFMAKAA2AC4ANAAzADcANQAsACAAMQApAFwAbgAgACAAIAAgACAAkiEgAFwAIgA2ACcAIAA1AC0AMQAvADQAXAAiAFwAIgBcAG4AXABuACAAIAAgACAAIABGAE8AUgBNAEEAVABfAEYARQBFAFQAXwBBAE4ARABfAEkATgBDAEgARQBTACgANgAuADQAMwA3ADUALAAgADAALAAgACwAIAA0ACkAXABuACAAIAAgACAAIACSISAAXAAiADYAJwAgADUALgAyADUAMAAwAFwAIgBcACIAXABuACoALwBcAG4AXABuAFwAbgBGAE8AUgBNAEEAVABfAEYARQBFAFQAXwBBAE4ARABfAEkATgBDAEgARQBTACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAHMAdAB5AGwAZQBdACwAIABbAGQAZQBuAG8AbQBdACwAIABbAHAAcgBlAGMAaQBzAGkAbwBuAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABQAGEAcgBhAG0AZQB0AGUAcgAgAGQAZQBmAGEAdQBsAHQAcwAgAGEAbgBkACAAdgBhAGwAaQBkAGEAdABpAG8AbgAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAAcwB0AHkAbABlACwAIABJAEYAKAAoAEkAUwBPAE0ASQBUAFQARQBEACgAcwB0AHkAbABlACkAKQAgACsAIAAoAHMAdAB5AGwAZQAgAD4AIAAxACkALAAgADAALAAgAHMAdAB5AGwAZQApACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAbgBvAG0ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAG4AbwBtACkALAAgADEANgAsACAAVABSAFUATgBDACgAZABlAG4AbwBtACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcAByAGUAYwBpAHMAaQBvAG4ALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAcAByAGUAYwBpAHMAaQBvAG4AKQAsACAAMwAsACAAcAByAGUAYwBpAHMAaQBvAG4AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAARQB4AHQAcgBhAGMAdAAgAGkAbgB0AGUAZwBlAHIAIABhAG4AZAAgAGQAZQBjAGkAbQBhAGwAIABwAGEAcgB0AHMAIABvAGYAIABmAGUAZQB0ACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABmAGUAZQB0ACwAIABRAFUATwBUAEkARQBOAFQAKABpAG4AcAB1AHQALAAgADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZgBlAGUAdABfAG0AYQBuAHQALAAgAE0ATwBEACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEMAbwBuAHYAZQByAHQAIABkAGUAYwBpAG0AYQBsACAAcABvAHIAdABpAG8AbgAgAHQAbwAgAGkAbgBjAGgAZQBzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABkAGUAYwBpAG0AYQBsAF8AaQBuAGMAaAAsACAAUgBPAFUATgBEACgAZgBlAGUAdABfAG0AYQBuAHQAIAAqACAAMQAyACwAIABwAHIAZQBjAGkAcwBpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIABpAG4AYwBoAF8AaQBuAHQALAAgAFQAUgBVAE4AQwAoAGQAZQBjAGkAbQBhAGwAXwBpAG4AYwBoACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAXwBkAGUAYwAsACAAZABlAGMAaQBtAGEAbABfAGkAbgBjAGgAIAAtACAAaQBuAGMAaABfAGkAbgB0ACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABDAGEAbABjAHUAbABhAHQAZQAgAHMAaQBtAHAAbABpAGYAaQBlAGQAIABmAHIAYQBjAHQAaQBvAG4AIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAXwBuAHUAbQBlAHIALAAgAFQAUgBVAE4AQwAoAGkAbgBjAGgAXwBkAGUAYwAgACoAIABkAGUAbgBvAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAG0AZgBhAGMAdAAsACAARwBDAEQAKABpAG4AYwBoAF8AbgB1AG0AZQByACwAIABkAGUAbgBvAG0AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbgB1AG0AZQByAGYAaQBuAGEAbAAsACAAaQBuAGMAaABfAG4AdQBtAGUAcgAgAC8AIABjAG8AbQBmAGEAYwB0ACwAXABuACAAIAAgACAAIAAgACAAIABkAGUAbgBvAG0AZgBpAG4AYQBsACwAIABkAGUAbgBvAG0AIAAvACAAYwBvAG0AZgBhAGMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAdABlAHMAdAAsACAATQBPAEQAKABpAG4AYwBoAF8AbgB1AG0AZQByACwAIABkAGUAbgBvAG0AKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAD0APQA9ACAAQQBzAHMAZQBtAGIAbABlACAAZgBvAHIAbQBhAHQAdABlAGQAIABjAG8AbQBwAG8AbgBlAG4AdABzACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABmAHIAYQBjAF8AaQBuAGMAaAAsACAASQBGACgAdABlAHMAdAAgADwAPgAgADAALAAgAG4AdQBtAGUAcgBmAGkAbgBhAGwAIAAmACAAXAAiAC8AXAAiACAAJgAgAGQAZQBuAG8AbQBmAGkAbgBhAGwALAAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHQAXwBpAG4AYwBoACwAIABJAEYAKABpAG4AYwBoAF8AaQBuAHQAIAA9ACAAMAAsACAAXAAiAFwAIgAsACAAaQBuAGMAaABfAGkAbgB0ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAEMAbwBtAGIAaQBuAGUAZAAgAGYAbwByAG0AYQB0AHQAaQBuAGcAIABsAG8AZwBpAGMAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAGMAbwBtAGIAbwAsACAASQBGAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABpAG4AdABfAGkAbgBjAGgAIAA9ACAAXAAiAFwAIgAsACAAZgByAGEAYwBfAGkAbgBjAGgAIAA9ACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAZQBlAHQAIAAmACAAQwBIAEEAUgAoADMAOQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEEATgBEACgAaQBuAHQAXwBpAG4AYwBoACAAPQAgAFwAIgBcACIALAAgAGYAcgBhAGMAXwBpAG4AYwBoACAAPAA+ACAAXAAiAFwAIgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAZQBlAHQAIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABmAHIAYQBjAF8AaQBuAGMAaAAgACYAIABDAEgAQQBSACgAMwA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAEQAKABpAG4AdABfAGkAbgBjAGgAIAA8AD4AIABcACIAXAAiACwAIABmAHIAYQBjAF8AaQBuAGMAaAAgADwAPgAgAFwAIgBcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGUAZQB0ACAAJgAgAEMASABBAFIAKAAzADkAKQAgACYAIABDAEgAQQBSACgAMwAyACkAIAAmACAAaQBuAHQAXwBpAG4AYwBoACAAJgAgAFwAIgAtAFwAIgAgACYAIABmAHIAYQBjAF8AaQBuAGMAaAAgACYAIABDAEgAQQBSACgAMwA0ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVABSAFUARQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABmAGUAZQB0ACAAJgAgAEMASABBAFIAKAAzADkAKQAgACYAIABDAEgAQQBSACgAMwAyACkAIAAmACAAaQBuAHQAXwBpAG4AYwBoACAAJgAgAEMASABBAFIAKAAzADQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFMAdABhAG4AZABhAHIAZAAgAGQAZQBjAGkAbQBhAGwAIABmAG8AcgBtAGEAdAB0AGkAbgBnACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIABzAHQAYQBuAGQAYQByAGQALAAgAGYAZQBlAHQAIAAmACAAQwBIAEEAUgAoADMAOQApACAAJgAgAEMASABBAFIAKAAzADIAKQAgACYAIABkAGUAYwBpAG0AYQBsAF8AaQBuAGMAaAAgACYAIABDAEgAQQBSACgAMwA0ACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIAA9AD0APQAgAFIAZQB0AHUAcgBuACAAYgBhAHMAZQBkACAAbwBuACAAcwB0AHkAbABlACAAcwBlAGwAZQBjAHQAaQBvAG4AIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABTAFcASQBUAEMASAAoAHMAdAB5AGwAZQAsACAAMAAsACAAcwB0AGEAbgBkAGEAcgBkACwAIAAxACwAIABjAG8AbQBiAG8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AXABuAC8AKgAgAEYATwBSAE0AQQBUAF8ASQBOAEMASABfAEYAUgBBAEMAVABJAE8ATgA6AFwAbgAgACAAIABQAHUAcgBwAG8AcwBlADoAXABuACAAIAAgAEMAbwBuAHYAZQByAHQAcwAgAGEAIABkAGUAYwBpAG0AYQBsACAAaQBuAGMAaAAgAG0AZQBhAHMAdQByAGUAbQBlAG4AdAAgAGkAbgB0AG8AIABhACAAcwB0AHIAaQBuAGcAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGEAcwAgAGkAbgBjAGgAZQBzACAAYQBuAGQAIABzAGkAbQBwAGwAaQBmAGkAZQBkACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAGkAbgBjAGgAZQBzAC4AXABuACAAIAAgAFUAcwBlAGYAdQBsACAAZgBvAHIAIABjAG8AbgBzAHQAcgB1AGMAdABpAG8AbgAsACAAYwBhAGIAaQBuAGUAdAByAHkALAAgAGEAbgBkACAAYQBuAHkAIABhAHAAcABsAGkAYwBhAHQAaQBvAG4AIAB1AHMAaQBuAGcAIABpAG0AcABlAHIAaQBhAGwAIAB1AG4AaQB0AHMALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAGwAaQBrAGUAIABgADIALQAzAC8AOABcACIAYAAgAG8AcgAgAGAANQBcACIAYABcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAIABkAGUAYwBpAG0AYQBsACAAaQBuAGMAaAAgAHYAYQBsAHUAZQAgACgAZQAuAGcALgAsACAAMgAuADMANwA1ACkAXABuACAAIAAgAC0AIABkAGUAbgBvAG0AIAAoAG8AcAB0AGkAbwBuAGEAbAApADoAIABEAGUAbgBvAG0AaQBuAGEAdABvAHIAIAB0AG8AIAByAG8AdQBuAGQAIAB0AG8AIAAoAGUALgBnAC4ALAAgADEANgAsACAAMwAyACkALgAgAEQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADMAMgAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABBAHUAdABvAG0AYQB0AGkAYwBhAGwAbAB5ACAAcgBlAGQAdQBjAGUAcwAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABjAG8AbQBwAG8AbgBlAG4AdAAgAHQAbwAgAGwAbwB3AGUAcwB0ACAAdABlAHIAbQBzAC4AXABuACAAIAAgAC0AIABPAG0AaQB0AHMAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGkAZgAgAHQAaABlACAAcgBlAG0AYQBpAG4AZABlAHIAIABpAHMAIAAwAC4AXABuACAAIAAgAC0AIABBAGwAdwBhAHkAcwAgAHIAZQB0AHUAcgBuAHMAIABwAHIAbwBwAGUAcgBsAHkAIABmAG8AcgBtAGEAdAB0AGUAZAAgAGkAbgBjAGgAIABzAHkAbQBiAG8AbAAgACgAXAAiACkAXABuACAAIAAgAC0AIABIAGEAbgBkAGwAZQBzACAAZQBkAGcAZQAgAGMAYQBzAGUAcwAgAGwAaQBrAGUAIAAwAFwAIgAsACAAcAB1AHIAZQAgAGYAcgBhAGMAdABpAG8AbgBzACwAIABvAHIAIAB3AGgAbwBsAGUAIABpAG4AYwBoAGUAcwAuAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIAAgACAARgBPAFIATQBBAFQAXwBJAE4AQwBIAF8ARgBSAEEAQwBUAEkATwBOACgAMgAuADMANwA1ACwAIAAxADYAKQAgAJIhIABcACIAMgAtADMALwA4AFwAXABcACIAXAAiAFwAbgAgACAAIAAgACAARgBPAFIATQBBAFQAXwBJAE4AQwBIAF8ARgBSAEEAQwBUAEkATwBOACgANQApACAAkiEgAFwAIgA1AFwAXABcACIAXAAiAFwAbgAqAC8AXABuAFwAbgBGAE8AUgBNAEEAVABfAEkATgBDAEgAXwBGAFIAQQBDAFQASQBPAE4AIAA9ACAATABBAE0AQgBEAEEAKABpAG4AcAB1AHQALAAgAFsAZABlAG4AbwBtAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAHQAbwAgADMAMgAgAGkAZgAgAG4AbwAgAGQAZQBuAG8AbQBpAG4AYQB0AG8AcgAgAHAAcgBvAHYAaQBkAGUAZABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBuAG8AbQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABkAGUAbgBvAG0AKQAsACAAMwAyACwAIABUAFIAVQBOAEMAKABkAGUAbgBvAG0AKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUwBlAHAAYQByAGEAdABlACAAdwBoAG8AbABlACAAaQBuAGMAaABlAHMAIABhAG4AZAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABwAGEAcgB0AFwAbgAgACAAIAAgACAAIAAgACAAaQBuAGMAaAAsACAAUQBVAE8AVABJAEUATgBUACgAaQBuAHAAdQB0ACwAIAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAXwBtAGEAbgB0ACwAIABNAE8ARAAoAGkAbgBwAHUAdAAsACAAMQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAbgB1AG0AZQByAGEAdABvAHIAIABhAG4AZAAgAHMAaQBtAHAAbABpAGYAeQBcAG4AIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAXwBuAHUAbQBlAHIALAAgAFQAUgBVAE4AQwAoAGkAbgBjAGgAXwBtAGEAbgB0ACAAKgAgAGQAZQBuAG8AbQApACwAXABuACAAIAAgACAAIAAgACAAIABjAG8AbQBmAGEAYwB0ACwAIABHAEMARAAoAGkAbgBjAGgAXwBuAHUAbQBlAHIALAAgAGQAZQBuAG8AbQApACwAXABuACAAIAAgACAAIAAgACAAIABuAHUAbQBlAHIAZgBpAG4AYQBsACwAIABpAG4AYwBoAF8AbgB1AG0AZQByACAALwAgAGMAbwBtAGYAYQBjAHQALABcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBuAG8AbQBmAGkAbgBhAGwALAAgAGQAZQBuAG8AbQAgAC8AIABjAG8AbQBmAGEAYwB0ACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBvAHIAbQBhAHQAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdABcAG4AIAAgACAAIAAgACAAIAAgAGgAYQBzAF8AZgByAGEAYwB0AGkAbwBuACwAIABNAE8ARAAoAGkAbgBjAGgAXwBuAHUAbQBlAHIALAAgAGQAZQBuAG8AbQApACAAPAA+ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAGkAbgBjAGgALAAgAEkARgAoAGgAYQBzAF8AZgByAGEAYwB0AGkAbwBuACwAIABuAHUAbQBlAHIAZgBpAG4AYQBsACAAJgAgAFwAIgAvAFwAIgAgACYAIABkAGUAbgBvAG0AZgBpAG4AYQBsACwAIABcACIAXAAiACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABDAG8AbgBzAHQAcgB1AGMAdAAgAG8AdQB0AHAAdQB0ACAAcwB0AHIAaQBuAGcAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdAAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAXwBuAHUAbQBlAHIAIAA9ACAAMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBoACAAJgAgAEMASABBAFIAKAAzADQAKQAsACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvACAAZQAuAGcALgAsACAANQBcACIAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAGgAIAAmACAAXAAiAC0AXAAiACAAJgAgAGYAcgBhAGMAXwBpAG4AYwBoACAAJgAgAEMASABBAFIAKAAzADQAKQAgACAAIAAgACAAIAAgACAALwAvACAAZQAuAGcALgAsACAAMgAtADMALwA4AFwAIgBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAQwBPAE4AVgBFAFIAVABfAFQARQBNAFAAXwBDAF8AVABPAF8ARgAiACwAIgBDAE8ATgBWAEUAUgBUAF8AVABFAE0AUABfAEYAXwBUAE8AXwBDACIALAAiAEYATwBSAE0AQQBUAF8ARgBFAEUAVABfAEEATgBEAF8ASQBOAEMASABFAFMAIgAsACIARgBPAFIATQBBAFQAXwBJAE4AQwBIAF8ARgBSAEEAQwBUAEkATwBOACIAXQAsACIAbABvAGMAYQBsAGUAIgA6AHsAIgBsAGkAcwB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAcgBvAHcAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBjAG8AbAB1AG0AbgBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIATQBEAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiACQAIgAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbABMAGUAYQBkACIAOgB0AHIAdQBlACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAZQBwAEIAeQBTAHAAYQBjAGUAIgA6AGYAYQBsAHMAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAUgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBDACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAWwAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAXQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGwAbwBjAGEAbABlAE4AYQBtAGUAIgA6ACIAZQBuAC0AdQBzACIAfQB9AA==</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG4AdgBlAHIAdABzACAAYQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgACoAKgBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABuAG8AdABhAHQAaQBvAG4AKgAqACAAKABpAC4AZQAuACwAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABhAGwAdwBhAHkAcwAgAGEAIABtAHUAbAB0AGkAcABsAGUAIABvAGYAIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAGkAbgAgAHQAaABlACAAZgBvAHIAbQAgAG8AZgAgAGAAWAAuAFgAWABFACsAWQBZAGAALAAgAHcAaABlAHIAZQAgAGAAWQBZAGAAIABpAHMAIABhACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIABzAGgAbwB3ACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADIAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAHMAYwBpAGUAbgB0AGkAZgBpAGMALwBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABmAGkAZQBsAGQAcwAgAHcAaABlAHIAZQAgAFMASQAtAHAAcgBlAGYAaQB4ACAAYQBsAGkAZwBuAG0AZQBuAHQAIABtAGEAdAB0AGUAcgBzAC4AXABuACAAIAAgAC0AIABTAGkAbQBpAGwAYQByACAAdABvACAAcwBjAGkAZQBuAHQAaQBmAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAsACAAYgB1AHQAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABjAG8AbgBzAHQAcgBhAGkAbgBlAGQAIAB0AG8AIABtAHUAbAB0AGkAcABsAGUAcwAgAG8AZgAgADMALgBcAG4AIAAgACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAGEAbABsAHkAIAByAG8AdQBuAGQAcwAgAHQAaABlACAAbQBhAG4AdABpAHMAcwBhACAAdABvACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAHAAcgBlAGMAaQBzAGkAbwBuAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHACgAMQAyADMANAA1ADYANwApAFwAbgAgACAAIAAgACAAkiEgAFwAIgAxAC4AMgAzAEUAKwAwADYAXAAiAFwAbgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBFAE4ARwBJAE4ARQBFAFIASQBOAEcAKAAwAC4AMAAwADAANAA3ADgALAAgADMAKQBcAG4AIAAgACAAIAAgAJIhIABcACIANAA3ADgALgAwADAAMABFAC0AMAA2AFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAYwBpAHMAaQBvAG4AIABkAGUAZgBhAHUAbAB0ACAAdABvACAAMgAgAGkAZgAgAG8AbQBpAHQAdABlAGQAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAAMgAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGUAeABwAG8AbgBlAG4AdAAgACgAcgBvAHUAbgBkAGUAZAAgAGQAbwB3AG4AIAB0AG8AIABuAGUAYQByAGUAcwB0ACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABBAEIAUwAoAGkAbgBwAHUAdAApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAcABvAHcAZQByACAALQAgAE0ATwBEACgAcABvAHcAZQByACwAIAAzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABOAG8AcgBtAGEAbABpAHoAZQAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAgAHQAbwAgAG0AYQBuAHQAaQBzAHMAYQBcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIAAxADAAIABeACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlACwAIABSAE8AVQBOAEQAKABpAG4AcAB1AHQAIAAvACAAYQBkAGoAdQBzAHQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0ACAAcwB1AGYAZgBpAHgAIABhAHMAIABFACsAMAAzACAAcwB0AHkAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAXAAiAEUAXAAiACAAJgAgAEkARgAoAGQAaQB2AGkAcwBvAHIAIAA+AD0AIAAwACwAIABcACIAKwBcACIALAAgAFwAIgBcACIAKQAgACYAIABUAEUAWABUACgAZABpAHYAaQBzAG8AcgAsACAAXAAiADAAMABcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAbwBzAGUAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQAKAB2AGEAbAB1AGUALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAHAAcgBlAGMAKQApACAAJgAgAHMAdQBmAGYALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbgB2AGUAcgB0AHMAIABhACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABhACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcwB0AHIAaQBuAGcAIAB1AHMAaQBuAGcAXABuACAAIAAgAG0AZQB0AHIAaQBjACAAUwBJAC0AcwB0AHkAbABlACAAcwB1AGYAZgBpAHgAZQBzACAAKABlAC4AZwAuACwAIABcACIAawBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEcAXAAiACkALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABkAGUAYwBwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAdABoAGUAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAdAByAGkAbgBnACAAdwBpAHQAaAAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABzAGMAYQBsAGUAZAAgAGEAbgBkACAAcwB1AGYAZgBpAHgAZQBkACAAdQBzAGkAbgBnACAAYwBvAG0AbQBvAG4AIABtAGUAdAByAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABzAGMAYQBsAGkAbgBnACAAdQBwACAAdABvACAAMQAwAF4AMwAwAC4AXABuACAAIAAgAC0AIABTAHUAZgBmAGkAeAAgAHAAcgBvAGcAcgBlAHMAcwBpAG8AbgA6ACAAXAAiAGsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAUABcACIALAAgAFwAIgBFAFwAIgAsACAAXAAiAFoAXAAiACwAIABcACIAWQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAFEAXAAiAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAB1AG4AZABlAHIAIAAxADAAXgAzACAAcgBlAHQAdQByAG4AIAB0AGgAZQAgAHIAYQB3ACAAdgBhAGwAdQBlACAAdwBpAHQAaAAgAGEAIABkAGEAcwBoADoAIABgAFwAIgAUIFwAIgBgAFwAbgAgACAAIAAtACAARQB4AHQAcgBlAG0AZQBsAHkAIABsAGEAcgBnAGUAIAB2AGEAbAB1AGUAcwAgAGEAcgBlACAAYwBhAHAAcABlAGQAIABhAHQAIAB0AGgAZQAgAGgAaQBnAGgAZQBzAHQAIABrAG4AbwB3AG4AIABzAHUAZgBmAGkAeAAuAFwAbgAgACAAIAAtACAARABlAGMAaQBtAGEAbAAgAHIAbwB1AG4AZABpAG4AZwAgAGkAcwAgAG8AcAB0AGkAbwBuAGEAbAAgAGEAbgBkACAAZABlAGYAYQB1AGwAdABzACAAdABvACAAMwAgAGQAaQBnAGkAdABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADEAMgAzADQANQA2ACkAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAxADIAMwAuADQANQA2ACAAawBcACIAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAKAA5ADgANwA2ADUANAAzADIAMQAsACAAMgApACAAIAAgAJIhIABcACIAOQA4ADcALgA2ADUAIABNAFwAIgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADAALgAwADEANQApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAwAC4AMAAxADUAIAAUIFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAE0AQQBHAE4ASQBUAFUARABFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAGQAZQBjAHAAcgBlAGMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAAMwAwACwAIAAgAC8ALwAgAE0AYQB4AGkAbQB1AG0AIABwAG8AdwBlAHIAIABvAGYAIAB0AGUAbgAgAHQAbwAgAGEAdgBvAGkAZAAgAG8AdgBlAHIAZgBsAG8AdwBcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAcAByAGUAYwApACwAIAAzACwAIABkAGUAYwBwAHIAZQBjACkALAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAHAAcgBlAGMAaQBzAGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABBAEIAUwAoAGkAbgBwAHUAdAApACwAIAAgAC8ALwAgAEEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGYAbwByACAAbQBhAGcAbgBpAHQAdQBkAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAIAB0AGgAZQAgAG8AcgBkAGUAcgAgAG8AZgAgAG0AYQBnAG4AaQB0AHUAZABlAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAoAGkAbgBwAHUAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAYQB0AGUAZwBvAHIAeQAsACAATQBPAEQAKABwAG8AdwBlAHIALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAUwBXAEkAVABDAEgAKABjAGEAdABlAGcAbwByAHkALAAgADAALAAgAHAAbwB3AGUAcgAsACAAMQAsACAAcABvAHcAZQByACAALQAgADEALAAgADIALAAgAHAAbwB3AGUAcgAgAC0AIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIABJAEYAKABkAGkAdgBpAHMAbwByACAAPAA9ACAAbQBhAHgALAAgADEAMAAgAF4AIABkAGkAdgBpAHMAbwByACwAIAAxADAAIABeACAAbQBhAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQAgAGEAbgBkACAAcwB1AGYAZgBpAHgAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUALAAgAGkAbgBwAHUAdAAgAC8AIABhAGQAagB1AHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAFCBcACIALAAgADMALAAgAFwAIgBrAFwAIgAsACAANgAsACAAXAAiAE0AXAAiACwAIAA5ACwAIABcACIARwBcACIALAAgADEAMgAsACAAXAAiAFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANQAsACAAXAAiAFAAXAAiACwAIAAxADgALAAgAFwAIgBFAFwAIgAsACAAMgAxACwAIABcACIAWgBcACIALAAgADIANAAsACAAXAAiAFkAXAAiACwAIAAyADcALAAgAFwAIgBSAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADAALAAgAFwAIgBRAFwAIgAsACAAXAAiAD8APwBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEYASQBYAEUARAAoAHYAYQBsAHUAZQAsACAAZABlAGMAcAByAGUAYwAsACAAVABSAFUARQApACAAJgAgAFwAIgAgAFwAIgAgACYAIABzAHUAZgBmACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABOAFUATQBOAE8AVABFAF8AUABPAFcARQBSAFQAQQBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAG8AbgBsAHkAIAB0AGgAZQAgAGUAeABwAG8AbgBlAG4AdAAgAHQAYQBnACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAZIHMAIABzAGMAaQBlAG4AdABpAGYAaQBjACAAbwByACAAcABvAHcAZQByAC0AbwBmAC0AdABlAG4AIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAAVABoAGkAcwAgAGQAbwBlAHMAIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgABQgIABqAHUAcwB0ACAAdABoAGUAIABzAHkAbQBiAG8AbABpAGMAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAHMAYwBhAGwAZQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAARQBpAHQAaABlAHIAIABhAG4AIABcACIARQArAG4AbgBcACIAIAB0AGEAZwAgAG8AcgAgAGEAIABcACIAMQAwAF4AbgBcACIAIABsAGEAYgBlAGwAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcABvAHcAZQByACAAbwBmACAAMQAwAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcABvAHMAaQB0AGkAdgBlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgBcAG4AIAAgACAAIAAgACAAIAAwACAAKABkAGUAZgBhAHUAbAB0ACkAOgAgAFwAIgBFACsAbgBuAFwAIgAgAGYAbwByAG0AYQB0ACAAKABlAC4AZwAuACwAIABcACIARQArADAAMwBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAxACAAIAAgACAAIAAgACAAIAAgADoAIABcACIAMQAwAF4AbgBcACIAIABmAG8AcgBtAGEAdAAgACgAZQAuAGcALgAsACAAXAAiADEAMABeADMAXAAiACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABpAHMAIABpAG4AdABlAG4AZABlAGQAIABmAG8AcgAgAGwAYQBiAGUAbABpAG4AZwAsACAAZgBvAHIAbQBhAHQAdABpAG4AZwAsACAAbwByACAAYQBuAG4AbwB0AGEAdABpAG8AbgAgABQgIABuAG8AdAAgAGYAbwByACAAbQBhAHQAaAAuAFwAbgAgACAAIAAtACAAVABoAGUAIABjAG8AZQBmAGYAaQBjAGkAZQBuAHQAIAAoAG0AYQBuAHQAaQBzAHMAYQApACAAaQBzACAAbgBvAHQAIABpAG4AYwBsAHUAZABlAGQAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHUAbAB0AC4AXABuACAAIAAgAC0AIABFAHEAdQBpAHYAYQBsAGUAbgB0ACAAdABvACAAZQB4AHQAcgBhAGMAdABpAG4AZwAgAHQAaABlACAAZQB4AHAAbwBuAGUAbgB0ACAAZgByAG8AbQAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAALQAgAE0AbwBkAGUAIAAyACAAZgByAG8AbQAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAbQBvAHYAZQBkACAAYQBzACAAcgBlAGQAdQBuAGQAYQBuAHQAIAAoAEUAeABjAGUAbAAgAHMAdQBwAHAAbwByAHQAcwAgAGkAdAAgAHYAaQBhACAAVABFAFgAVAAoAC4ALgAuACwAIABcACIAMAAuADAAMABFACsAMAAwAFwAIgApACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAA0ADUANgAwACkAIAAgACAAIAAgACAAIACSISAAXAAiAEUAKwAwADMAXAAiAFwAbgAgACAAIAAgACAATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAoADAALgAwADAAMQAyADMALAAgADEAKQAgAJIhIABcACIAMQAwAF4ALQAzAFwAIgBcAG4AIAAgACAAIAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAgACwAIABjAG8AZQBmAGYALAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAB4ACkAKQAgAJIhIABGAHUAbABsACAAbABhAGIAZQBsAFwAbgBcAG4AIAAgACAAUwBlAGUAIABhAGwAcwBvADoAXABuACAAIAAgAC0AIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAIAAUICAAYQBkAGQAcwAgAG0AZQB0AHIAaQBjACAAcwB1AGYAZgBpAHgAZQBzACAAbABpAGsAZQAgAFwAIgBrAFwAIgAsACAAXAAiAE0AXAAiACwAIABlAHQAYwAuAFwAbgAgACAAIAAtACAATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgABQgIABpAG4AYwBsAHUAZABlAHMAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgAHcAaQB0AGgAIABhACAAZgBpAHgAZQBkACAAZQB4AHAAbwBuAGUAbgB0AFwAbgAqAC8AXABuAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABTAGUAdAAgAGQAZQBmAGEAdQBsAHQAIABvAHUAdABwAHUAdAAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMAAgAJIhIABcACIARQArAG4AbgBcACIAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMQAgAJIhIABcACIAMQAwAF4AbgBcACIAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABDAGEAbABjAHUAbABhAHQAZQAgAHQAaABlACAAYgBhAHMAZQAtADEAMAAgAGUAeABwAG8AbgBlAG4AdAAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAVABSAFUATgBDACgATABPAEcAMQAwACgALgAuAC4AKQApACAAZwBpAHYAZQBzACAAdQBzACAAdABoAGUAIABvAHIAZABlAHIALQBvAGYALQBtAGEAZwBuAGkAdAB1AGQAZQAgAHAAbwB3AGUAcgBcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBnACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABpAG4AcAB1AHQAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABGAG8AcgBtAGEAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AbwBkAGUAIAAwACAAkiEgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIAB0AGEAZwAgACgAZQAuAGcALgAsACAARQArADAAMwApAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAATQBvAGQAZQAgADEAIACSISAAbQBhAHQAaAAgAGUAeABwAHIAZQBzAHMAaQBvAG4AIAAoAGUALgBnAC4ALAAgADEAMABeADMAKQBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgBFACsAXAAiACAAJgAgAFQARQBYAFQAKABtAGEAZwAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwAF4AXAAiACAAJgAgAG0AYQBnACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABSAGUAdAB1AHIAbgAgAHIAZQBzAHUAbAB0ACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAE4AVQBNAF8ATwBOAEwAWQAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnAGUAdABfAGMAbwBkAGUAcwAsACAAQwBPAEQARQAoAE0ASQBEACgATABPAFcARQBSACgAaQBuAHAAdQB0ACkALAAgAFMARQBRAFUARQBOAEMARQAoAEwARQBOACgAaQBuAHAAdQB0ACkAKQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBrAGUAXwBuAHUAbQAsACAAUwBVAE0AKAAtAC0AQgBZAFIATwBXACgAZwBlAHQAXwBjAG8AZABlAHMALAAgAEwAQQBNAEIARABBACgAegAsACAAegAgAD0AIAA0ADYAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAGsAZQBfAG4AdQBtACAAPgA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAIwBOAE8ATgBFACEAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAiACwAIgBOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAIgAsACIATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAiACwAIgBOAFUATQBfAE8ATgBMAFkAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Number Notation Expansion Utilities/Number Notation Utlities.xlsx
+++ b/Number Notation Expansion Utilities/Number Notation Utlities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/profmc/Library/CloudStorage/Dropbox/Lambda-Update-Project/Lambda-Development/Number Notation Expansion Utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0970635E-14C8-824C-A9D8-A329594A5305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3267BB52-ECF4-9549-A9CF-C6BD2422160E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="1100" windowWidth="33260" windowHeight="14260" xr2:uid="{7A445647-2974-6942-9320-70750788AE91}"/>
   </bookViews>
@@ -16,6 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="General.FORMTEXT">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.recpt, _xlfn.FORMULATEXT(_xlpm.input), _xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 3), 2, _xlpm.mode), _xlpm.checkval, ISNUMBER(SEARCH("(", _xlpm.recpt)), _xlpm.cell_name, SUBSTITUTE(CELL("address", _xlpm.input), "$", ""), _xlpm.list, IF(NOT(_xlpm.checkval), _xlpm.recpt, _xlfn.TEXTSPLIT(_xlpm.recpt, ")")), _xlpm.result, IF(_xlpm.checkval, _xlfn.BYCOL(_xlpm.list, _xlfn.LAMBDA(_xlpm.x, _xlfn.TEXTBEFORE(_xlpm.x, "(", , , , ""))), _xlpm.list), _xlpm.collected, _xlfn.TEXTJOIN("", , INDEX(_xlpm.result, _xlfn.SEQUENCE(COUNTA(_xlpm.result)))), _xlpm.parenthetical, _xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(_xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), "("), " "), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.collected, 1, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.collected, "=", "")), 2, _xlfn.CONCAT(_xlpm.cell_name, ":= ", SUBSTITUTE(_xlpm.recpt, "=", "")), 3, _xlfn.FORMULATEXT(_xlpm.input)), _xlpm.output))</definedName>
+    <definedName name="General.FRAC">_xlfn.LAMBDA(_xlpm.input,_xlop.mode, _xlfn.LET(_xlpm.mode, IF(OR(_xlfn.ISOMITTED(_xlpm.mode), _xlpm.mode &gt; 1), 0, _xlpm.mode), _xlpm.frac_part, _xlpm.input - TRUNC(_xlpm.input), IF(_xlpm.mode = 1, _xlpm.frac_part, ABS(_xlpm.frac_part))))</definedName>
+    <definedName name="General.RECIP">_xlfn.LAMBDA(_xlpm.input, 1 / _xlpm.input)</definedName>
+    <definedName name="General.ROOT">_xlfn.LAMBDA(_xlpm.n,_xlop.x, _xlfn.LET(_xlpm.root_result, IF(_xlfn.ISOMITTED(_xlpm.x), SQRT(_xlpm.n), _xlpm.n ^ (1 / _xlpm.x)), _xlpm.root_result))</definedName>
     <definedName name="NUM_ONLY">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(_xlpm.get_codes, CODE(MID(LOWER(_xlpm.input), _xlfn.SEQUENCE(LEN(_xlpm.input)), 1)), _xlpm.make_num, SUM(--_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.z, _xlpm.z = 46))), _xlpm.output, IF(_xlpm.make_num &gt;= 2, _xlfn.CONCAT(_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.x, IF(AND(OR(_xlpm.x &lt; 48, _xlpm.x &gt; 57), _xlpm.x &lt;&gt; 46), "", CHAR(_xlpm.x))))), IFERROR(VALUE(_xlfn.CONCAT(_xlfn.BYROW(_xlpm.get_codes, _xlfn.LAMBDA(_xlpm.x, IF(AND(OR(_xlpm.x &lt; 48, _xlpm.x &gt; 57), _xlpm.x &lt;&gt; 46), "", CHAR(_xlpm.x)))))), "#NONE!")), _xlpm.output))</definedName>
     <definedName name="NUMNOTE_ENGINEERING">_xlfn.LAMBDA(_xlpm.input,_xlop.prec, _xlfn.LET(_xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 2, _xlpm.prec), _xlpm.power, TRUNC(LOG10(ABS(_xlpm.input))), _xlpm.divisor, _xlpm.power - MOD(_xlpm.power, 3), _xlpm.adjust, 10 ^ _xlpm.divisor, _xlpm.value, ROUND(_xlpm.input / _xlpm.adjust, _xlpm.prec), _xlpm.suff, "E" &amp; IF(_xlpm.divisor &gt;= 0, "+", "") &amp; TEXT(_xlpm.divisor, "00"), _xlpm.output, TEXT(_xlpm.value, "0." &amp; REPT("0", _xlpm.prec)) &amp; _xlpm.suff, _xlpm.output))</definedName>
     <definedName name="NUMNOTE_MAGNITUDE">_xlfn.LAMBDA(_xlpm.input,_xlop.decprec, _xlfn.LET(_xlpm.max, 30, _xlpm.decprec, IF(_xlfn.ISOMITTED(_xlpm.decprec), 3, _xlpm.decprec), _xlpm.input, ABS(_xlpm.input), _xlpm.power, TRUNC(LOG(_xlpm.input)), _xlpm.category, MOD(_xlpm.power, 3), _xlpm.divisor, _xlfn.SWITCH(_xlpm.category, 0, _xlpm.power, 1, _xlpm.power - 1, 2, _xlpm.power - 2), _xlpm.adjust, IF(_xlpm.divisor &lt;= _xlpm.max, 10 ^ _xlpm.divisor, 10 ^ _xlpm.max), _xlpm.value, _xlpm.input / _xlpm.adjust, _xlpm.suff, _xlfn.SWITCH(_xlpm.divisor, 0, "—", 3, "k", 6, "M", 9, "G", 12, "T", 15, "P", 18, "E", 21, "Z", 24, "Y", 27, "R", 30, "Q", "??"), _xlpm.output, FIXED(_xlpm.value, _xlpm.decprec, TRUE) &amp; " " &amp; _xlpm.suff, _xlpm.output))</definedName>
@@ -93,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,122 +465,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6503EE-3967-F142-A914-D59AF539BB00}">
-  <dimension ref="B3:G22"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1" t="str" cm="1">
+    <row r="3" spans="2:4">
+      <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">NUMNOTE_ENGINEERING(456789)</f>
         <v>456.79E+03</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B3)</f>
         <v>=NUMNOTE_ENGINEERING(456789)</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1" t="str" cm="1">
+    <row r="4" spans="2:4">
+      <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">NUMNOTE_ENGINEERING(456789,5)</f>
         <v>456.78900E+03</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B4)</f>
         <v>=NUMNOTE_ENGINEERING(456789,5)</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="F6" s="1">
-        <v>123456</v>
-      </c>
-      <c r="G6" s="1">
-        <f>TRUNC(LOG(TRUNC(F6))+1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1" t="str" cm="1">
+    <row r="7" spans="2:4">
+      <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">NUMNOTE_MAGNITUDE(456789)</f>
         <v>456.789 k</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=NUMNOTE_MAGNITUDE(456789)</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="str" cm="1">
+    <row r="8" spans="2:4">
+      <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">NUMNOTE_MAGNITUDE(456789,5)</f>
         <v>456.78900 k</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B8)</f>
         <v>=NUMNOTE_MAGNITUDE(456789,5)</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="str" cm="1">
+    <row r="11" spans="2:4">
+      <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">NUMNOTE_POWERTAG(456789,0)</f>
         <v>E+05</v>
       </c>
+      <c r="D11" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B11)</f>
+        <v>=NUMNOTE_POWERTAG(456789,0)</v>
+      </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="str" cm="1">
+    <row r="12" spans="2:4">
+      <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">NUMNOTE_POWERTAG(456789,1)</f>
         <v>10^5</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1" cm="1">
-        <f t="array" ref="B16">NUM_ONLY(186282)</f>
-        <v>186282</v>
-      </c>
-      <c r="D16" s="1" t="e" cm="1">
-        <f t="array" ref="D16:D22">VALUE({"a";"1";"b";".";"2";"c";"3"})</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="1">
-        <v>3</v>
+      <c r="D12" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B12)</f>
+        <v>=NUMNOTE_POWERTAG(456789,1)</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +546,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG4AdgBlAHIAdABzACAAYQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgACoAKgBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABuAG8AdABhAHQAaQBvAG4AKgAqACAAKABpAC4AZQAuACwAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABhAGwAdwBhAHkAcwAgAGEAIABtAHUAbAB0AGkAcABsAGUAIABvAGYAIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAGkAbgAgAHQAaABlACAAZgBvAHIAbQAgAG8AZgAgAGAAWAAuAFgAWABFACsAWQBZAGAALAAgAHcAaABlAHIAZQAgAGAAWQBZAGAAIABpAHMAIABhACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIABzAGgAbwB3ACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADIAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAHMAYwBpAGUAbgB0AGkAZgBpAGMALwBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABmAGkAZQBsAGQAcwAgAHcAaABlAHIAZQAgAFMASQAtAHAAcgBlAGYAaQB4ACAAYQBsAGkAZwBuAG0AZQBuAHQAIABtAGEAdAB0AGUAcgBzAC4AXABuACAAIAAgAC0AIABTAGkAbQBpAGwAYQByACAAdABvACAAcwBjAGkAZQBuAHQAaQBmAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAsACAAYgB1AHQAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABjAG8AbgBzAHQAcgBhAGkAbgBlAGQAIAB0AG8AIABtAHUAbAB0AGkAcABsAGUAcwAgAG8AZgAgADMALgBcAG4AIAAgACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAGEAbABsAHkAIAByAG8AdQBuAGQAcwAgAHQAaABlACAAbQBhAG4AdABpAHMAcwBhACAAdABvACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAHAAcgBlAGMAaQBzAGkAbwBuAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHACgAMQAyADMANAA1ADYANwApAFwAbgAgACAAIAAgACAAkiEgAFwAIgAxAC4AMgAzAEUAKwAwADYAXAAiAFwAbgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBFAE4ARwBJAE4ARQBFAFIASQBOAEcAKAAwAC4AMAAwADAANAA3ADgALAAgADMAKQBcAG4AIAAgACAAIAAgAJIhIABcACIANAA3ADgALgAwADAAMABFAC0AMAA2AFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAYwBpAHMAaQBvAG4AIABkAGUAZgBhAHUAbAB0ACAAdABvACAAMgAgAGkAZgAgAG8AbQBpAHQAdABlAGQAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAAMgAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGUAeABwAG8AbgBlAG4AdAAgACgAcgBvAHUAbgBkAGUAZAAgAGQAbwB3AG4AIAB0AG8AIABuAGUAYQByAGUAcwB0ACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABBAEIAUwAoAGkAbgBwAHUAdAApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAcABvAHcAZQByACAALQAgAE0ATwBEACgAcABvAHcAZQByACwAIAAzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABOAG8AcgBtAGEAbABpAHoAZQAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAgAHQAbwAgAG0AYQBuAHQAaQBzAHMAYQBcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIAAxADAAIABeACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlACwAIABSAE8AVQBOAEQAKABpAG4AcAB1AHQAIAAvACAAYQBkAGoAdQBzAHQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0ACAAcwB1AGYAZgBpAHgAIABhAHMAIABFACsAMAAzACAAcwB0AHkAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAXAAiAEUAXAAiACAAJgAgAEkARgAoAGQAaQB2AGkAcwBvAHIAIAA+AD0AIAAwACwAIABcACIAKwBcACIALAAgAFwAIgBcACIAKQAgACYAIABUAEUAWABUACgAZABpAHYAaQBzAG8AcgAsACAAXAAiADAAMABcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAbwBzAGUAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQAKAB2AGEAbAB1AGUALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAHAAcgBlAGMAKQApACAAJgAgAHMAdQBmAGYALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbgB2AGUAcgB0AHMAIABhACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABhACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcwB0AHIAaQBuAGcAIAB1AHMAaQBuAGcAXABuACAAIAAgAG0AZQB0AHIAaQBjACAAUwBJAC0AcwB0AHkAbABlACAAcwB1AGYAZgBpAHgAZQBzACAAKABlAC4AZwAuACwAIABcACIAawBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEcAXAAiACkALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABkAGUAYwBwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAdABoAGUAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAdAByAGkAbgBnACAAdwBpAHQAaAAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABzAGMAYQBsAGUAZAAgAGEAbgBkACAAcwB1AGYAZgBpAHgAZQBkACAAdQBzAGkAbgBnACAAYwBvAG0AbQBvAG4AIABtAGUAdAByAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABzAGMAYQBsAGkAbgBnACAAdQBwACAAdABvACAAMQAwAF4AMwAwAC4AXABuACAAIAAgAC0AIABTAHUAZgBmAGkAeAAgAHAAcgBvAGcAcgBlAHMAcwBpAG8AbgA6ACAAXAAiAGsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAUABcACIALAAgAFwAIgBFAFwAIgAsACAAXAAiAFoAXAAiACwAIABcACIAWQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAFEAXAAiAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAB1AG4AZABlAHIAIAAxADAAXgAzACAAcgBlAHQAdQByAG4AIAB0AGgAZQAgAHIAYQB3ACAAdgBhAGwAdQBlACAAdwBpAHQAaAAgAGEAIABkAGEAcwBoADoAIABgAFwAIgAUIFwAIgBgAFwAbgAgACAAIAAtACAARQB4AHQAcgBlAG0AZQBsAHkAIABsAGEAcgBnAGUAIAB2AGEAbAB1AGUAcwAgAGEAcgBlACAAYwBhAHAAcABlAGQAIABhAHQAIAB0AGgAZQAgAGgAaQBnAGgAZQBzAHQAIABrAG4AbwB3AG4AIABzAHUAZgBmAGkAeAAuAFwAbgAgACAAIAAtACAARABlAGMAaQBtAGEAbAAgAHIAbwB1AG4AZABpAG4AZwAgAGkAcwAgAG8AcAB0AGkAbwBuAGEAbAAgAGEAbgBkACAAZABlAGYAYQB1AGwAdABzACAAdABvACAAMwAgAGQAaQBnAGkAdABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADEAMgAzADQANQA2ACkAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAxADIAMwAuADQANQA2ACAAawBcACIAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAKAA5ADgANwA2ADUANAAzADIAMQAsACAAMgApACAAIAAgAJIhIABcACIAOQA4ADcALgA2ADUAIABNAFwAIgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADAALgAwADEANQApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAwAC4AMAAxADUAIAAUIFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAE0AQQBHAE4ASQBUAFUARABFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAGQAZQBjAHAAcgBlAGMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAAMwAwACwAIAAgAC8ALwAgAE0AYQB4AGkAbQB1AG0AIABwAG8AdwBlAHIAIABvAGYAIAB0AGUAbgAgAHQAbwAgAGEAdgBvAGkAZAAgAG8AdgBlAHIAZgBsAG8AdwBcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAcAByAGUAYwApACwAIAAzACwAIABkAGUAYwBwAHIAZQBjACkALAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAHAAcgBlAGMAaQBzAGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABBAEIAUwAoAGkAbgBwAHUAdAApACwAIAAgAC8ALwAgAEEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGYAbwByACAAbQBhAGcAbgBpAHQAdQBkAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAIAB0AGgAZQAgAG8AcgBkAGUAcgAgAG8AZgAgAG0AYQBnAG4AaQB0AHUAZABlAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAoAGkAbgBwAHUAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAYQB0AGUAZwBvAHIAeQAsACAATQBPAEQAKABwAG8AdwBlAHIALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAUwBXAEkAVABDAEgAKABjAGEAdABlAGcAbwByAHkALAAgADAALAAgAHAAbwB3AGUAcgAsACAAMQAsACAAcABvAHcAZQByACAALQAgADEALAAgADIALAAgAHAAbwB3AGUAcgAgAC0AIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIABJAEYAKABkAGkAdgBpAHMAbwByACAAPAA9ACAAbQBhAHgALAAgADEAMAAgAF4AIABkAGkAdgBpAHMAbwByACwAIAAxADAAIABeACAAbQBhAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQAgAGEAbgBkACAAcwB1AGYAZgBpAHgAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUALAAgAGkAbgBwAHUAdAAgAC8AIABhAGQAagB1AHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAFCBcACIALAAgADMALAAgAFwAIgBrAFwAIgAsACAANgAsACAAXAAiAE0AXAAiACwAIAA5ACwAIABcACIARwBcACIALAAgADEAMgAsACAAXAAiAFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANQAsACAAXAAiAFAAXAAiACwAIAAxADgALAAgAFwAIgBFAFwAIgAsACAAMgAxACwAIABcACIAWgBcACIALAAgADIANAAsACAAXAAiAFkAXAAiACwAIAAyADcALAAgAFwAIgBSAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADAALAAgAFwAIgBRAFwAIgAsACAAXAAiAD8APwBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEYASQBYAEUARAAoAHYAYQBsAHUAZQAsACAAZABlAGMAcAByAGUAYwAsACAAVABSAFUARQApACAAJgAgAFwAIgAgAFwAIgAgACYAIABzAHUAZgBmACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABOAFUATQBOAE8AVABFAF8AUABPAFcARQBSAFQAQQBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAG8AbgBsAHkAIAB0AGgAZQAgAGUAeABwAG8AbgBlAG4AdAAgAHQAYQBnACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAZIHMAIABzAGMAaQBlAG4AdABpAGYAaQBjACAAbwByACAAcABvAHcAZQByAC0AbwBmAC0AdABlAG4AIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAAVABoAGkAcwAgAGQAbwBlAHMAIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgABQgIABqAHUAcwB0ACAAdABoAGUAIABzAHkAbQBiAG8AbABpAGMAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAHMAYwBhAGwAZQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAARQBpAHQAaABlAHIAIABhAG4AIABcACIARQArAG4AbgBcACIAIAB0AGEAZwAgAG8AcgAgAGEAIABcACIAMQAwAF4AbgBcACIAIABsAGEAYgBlAGwAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcABvAHcAZQByACAAbwBmACAAMQAwAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcABvAHMAaQB0AGkAdgBlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgBcAG4AIAAgACAAIAAgACAAIAAwACAAKABkAGUAZgBhAHUAbAB0ACkAOgAgAFwAIgBFACsAbgBuAFwAIgAgAGYAbwByAG0AYQB0ACAAKABlAC4AZwAuACwAIABcACIARQArADAAMwBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAxACAAIAAgACAAIAAgACAAIAAgADoAIABcACIAMQAwAF4AbgBcACIAIABmAG8AcgBtAGEAdAAgACgAZQAuAGcALgAsACAAXAAiADEAMABeADMAXAAiACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABpAHMAIABpAG4AdABlAG4AZABlAGQAIABmAG8AcgAgAGwAYQBiAGUAbABpAG4AZwAsACAAZgBvAHIAbQBhAHQAdABpAG4AZwAsACAAbwByACAAYQBuAG4AbwB0AGEAdABpAG8AbgAgABQgIABuAG8AdAAgAGYAbwByACAAbQBhAHQAaAAuAFwAbgAgACAAIAAtACAAVABoAGUAIABjAG8AZQBmAGYAaQBjAGkAZQBuAHQAIAAoAG0AYQBuAHQAaQBzAHMAYQApACAAaQBzACAAbgBvAHQAIABpAG4AYwBsAHUAZABlAGQAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHUAbAB0AC4AXABuACAAIAAgAC0AIABFAHEAdQBpAHYAYQBsAGUAbgB0ACAAdABvACAAZQB4AHQAcgBhAGMAdABpAG4AZwAgAHQAaABlACAAZQB4AHAAbwBuAGUAbgB0ACAAZgByAG8AbQAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAALQAgAE0AbwBkAGUAIAAyACAAZgByAG8AbQAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAbQBvAHYAZQBkACAAYQBzACAAcgBlAGQAdQBuAGQAYQBuAHQAIAAoAEUAeABjAGUAbAAgAHMAdQBwAHAAbwByAHQAcwAgAGkAdAAgAHYAaQBhACAAVABFAFgAVAAoAC4ALgAuACwAIABcACIAMAAuADAAMABFACsAMAAwAFwAIgApACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAA0ADUANgAwACkAIAAgACAAIAAgACAAIACSISAAXAAiAEUAKwAwADMAXAAiAFwAbgAgACAAIAAgACAATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAoADAALgAwADAAMQAyADMALAAgADEAKQAgAJIhIABcACIAMQAwAF4ALQAzAFwAIgBcAG4AIAAgACAAIAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAgACwAIABjAG8AZQBmAGYALAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAB4ACkAKQAgAJIhIABGAHUAbABsACAAbABhAGIAZQBsAFwAbgBcAG4AIAAgACAAUwBlAGUAIABhAGwAcwBvADoAXABuACAAIAAgAC0AIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAIAAUICAAYQBkAGQAcwAgAG0AZQB0AHIAaQBjACAAcwB1AGYAZgBpAHgAZQBzACAAbABpAGsAZQAgAFwAIgBrAFwAIgAsACAAXAAiAE0AXAAiACwAIABlAHQAYwAuAFwAbgAgACAAIAAtACAATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgABQgIABpAG4AYwBsAHUAZABlAHMAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgAHcAaQB0AGgAIABhACAAZgBpAHgAZQBkACAAZQB4AHAAbwBuAGUAbgB0AFwAbgAqAC8AXABuAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABTAGUAdAAgAGQAZQBmAGEAdQBsAHQAIABvAHUAdABwAHUAdAAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMAAgAJIhIABcACIARQArAG4AbgBcACIAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMQAgAJIhIABcACIAMQAwAF4AbgBcACIAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABDAGEAbABjAHUAbABhAHQAZQAgAHQAaABlACAAYgBhAHMAZQAtADEAMAAgAGUAeABwAG8AbgBlAG4AdAAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAVABSAFUATgBDACgATABPAEcAMQAwACgALgAuAC4AKQApACAAZwBpAHYAZQBzACAAdQBzACAAdABoAGUAIABvAHIAZABlAHIALQBvAGYALQBtAGEAZwBuAGkAdAB1AGQAZQAgAHAAbwB3AGUAcgBcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBnACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABpAG4AcAB1AHQAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABGAG8AcgBtAGEAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AbwBkAGUAIAAwACAAkiEgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIAB0AGEAZwAgACgAZQAuAGcALgAsACAARQArADAAMwApAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAATQBvAGQAZQAgADEAIACSISAAbQBhAHQAaAAgAGUAeABwAHIAZQBzAHMAaQBvAG4AIAAoAGUALgBnAC4ALAAgADEAMABeADMAKQBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgBFACsAXAAiACAAJgAgAFQARQBYAFQAKABtAGEAZwAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwAF4AXAAiACAAJgAgAG0AYQBnACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABSAGUAdAB1AHIAbgAgAHIAZQBzAHUAbAB0ACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAE4AVQBNAF8ATwBOAEwAWQAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnAGUAdABfAGMAbwBkAGUAcwAsACAAQwBPAEQARQAoAE0ASQBEACgATABPAFcARQBSACgAaQBuAHAAdQB0ACkALAAgAFMARQBRAFUARQBOAEMARQAoAEwARQBOACgAaQBuAHAAdQB0ACkAKQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBrAGUAXwBuAHUAbQAsACAAUwBVAE0AKAAtAC0AQgBZAFIATwBXACgAZwBlAHQAXwBjAG8AZABlAHMALAAgAEwAQQBNAEIARABBACgAegAsACAAegAgAD0AIAA0ADYAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAGsAZQBfAG4AdQBtACAAPgA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAIwBOAE8ATgBFACEAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAiACwAIgBOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAIgAsACIATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAiACwAIgBOAFUATQBfAE8ATgBMAFkAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvACoAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAQwBvAG4AdgBlAHIAdABzACAAYQAgAG4AdQBtAGIAZQByACAAaQBuAHQAbwAgACoAKgBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABuAG8AdABhAHQAaQBvAG4AKgAqACAAKABpAC4AZQAuACwAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABhAGwAdwBhAHkAcwAgAGEAIABtAHUAbAB0AGkAcABsAGUAIABvAGYAIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHQAZQB4AHQAIABzAHQAcgBpAG4AZwAgAGkAbgAgAHQAaABlACAAZgBvAHIAbQAgAG8AZgAgAGAAWAAuAFgAWABFACsAWQBZAGAALAAgAHcAaABlAHIAZQAgAGAAWQBZAGAAIABpAHMAIABhACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAQQAgAG4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAATgB1AG0AYgBlAHIAIABvAGYAIABkAGUAYwBpAG0AYQBsACAAcABsAGEAYwBlAHMAIAB0AG8AIABzAGgAbwB3ACAAKABkAGUAZgBhAHUAbAB0ACAAPQAgADIAKQBcAG4AXABuACAAIAAgAE4AbwB0AGUAcwA6AFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAHMAYwBpAGUAbgB0AGkAZgBpAGMALwBlAG4AZwBpAG4AZQBlAHIAaQBuAGcAIABmAGkAZQBsAGQAcwAgAHcAaABlAHIAZQAgAFMASQAtAHAAcgBlAGYAaQB4ACAAYQBsAGkAZwBuAG0AZQBuAHQAIABtAGEAdAB0AGUAcgBzAC4AXABuACAAIAAgAC0AIABTAGkAbQBpAGwAYQByACAAdABvACAAcwBjAGkAZQBuAHQAaQBmAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAsACAAYgB1AHQAIABlAHgAcABvAG4AZQBuAHQAIABpAHMAIABjAG8AbgBzAHQAcgBhAGkAbgBlAGQAIAB0AG8AIABtAHUAbAB0AGkAcABsAGUAcwAgAG8AZgAgADMALgBcAG4AIAAgACAALQAgAEEAdQB0AG8AbQBhAHQAaQBjAGEAbABsAHkAIAByAG8AdQBuAGQAcwAgAHQAaABlACAAbQBhAG4AdABpAHMAcwBhACAAdABvACAAdABoAGUAIABzAHAAZQBjAGkAZgBpAGUAZAAgAHAAcgBlAGMAaQBzAGkAbwBuAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHACgAMQAyADMANAA1ADYANwApAFwAbgAgACAAIAAgACAAkiEgAFwAIgAxAC4AMgAzAEUAKwAwADYAXAAiAFwAbgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBFAE4ARwBJAE4ARQBFAFIASQBOAEcAKAAwAC4AMAAwADAANAA3ADgALAAgADMAKQBcAG4AIAAgACAAIAAgAJIhIABcACIANAA3ADgALgAwADAAMABFAC0AMAA2AFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBwAHIAZQBjAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAUAByAGUAYwBpAHMAaQBvAG4AIABkAGUAZgBhAHUAbAB0ACAAdABvACAAMgAgAGkAZgAgAG8AbQBpAHQAdABlAGQAXABuACAAIAAgACAAIAAgACAAIABwAHIAZQBjACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAHAAcgBlAGMAKQAsACAAMgAsACAAcAByAGUAYwApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBvAG0AcAB1AHQAZQAgAGUAeABwAG8AbgBlAG4AdAAgACgAcgBvAHUAbgBkAGUAZAAgAGQAbwB3AG4AIAB0AG8AIABuAGUAYQByAGUAcwB0ACAAbQB1AGwAdABpAHAAbABlACAAbwBmACAAMwApAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABBAEIAUwAoAGkAbgBwAHUAdAApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAcABvAHcAZQByACAALQAgAE0ATwBEACgAcABvAHcAZQByACwAIAAzACkALABcAG4AXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABOAG8AcgBtAGEAbABpAHoAZQAgAGkAbgBwAHUAdAAgAHYAYQBsAHUAZQAgAHQAbwAgAG0AYQBuAHQAaQBzAHMAYQBcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIAAxADAAIABeACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAdgBhAGwAdQBlACwAIABSAE8AVQBOAEQAKABpAG4AcAB1AHQAIAAvACAAYQBkAGoAdQBzAHQALAAgAHAAcgBlAGMAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAbwByAG0AYQB0ACAAcwB1AGYAZgBpAHgAIABhAHMAIABFACsAMAAzACAAcwB0AHkAbABlAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAXAAiAEUAXAAiACAAJgAgAEkARgAoAGQAaQB2AGkAcwBvAHIAIAA+AD0AIAAwACwAIABcACIAKwBcACIALAAgAFwAIgBcACIAKQAgACYAIABUAEUAWABUACgAZABpAHYAaQBzAG8AcgAsACAAXAAiADAAMABcACIAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAbwBzAGUAIABmAG8AcgBtAGEAdAB0AGUAZAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAFQARQBYAFQAKAB2AGEAbAB1AGUALAAgAFwAIgAwAC4AXAAiACAAJgAgAFIARQBQAFQAKABcACIAMABcACIALAAgAHAAcgBlAGMAKQApACAAJgAgAHMAdQBmAGYALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAC8AKgAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQBcAG4AIAAgACAAUAB1AHIAcABvAHMAZQA6AFwAbgAgACAAIABDAG8AbgB2AGUAcgB0AHMAIABhACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAgAGkAbgB0AG8AIABhACAAaAB1AG0AYQBuAC0AcgBlAGEAZABhAGIAbABlACAAcwB0AHIAaQBuAGcAIAB1AHMAaQBuAGcAXABuACAAIAAgAG0AZQB0AHIAaQBjACAAUwBJAC0AcwB0AHkAbABlACAAcwB1AGYAZgBpAHgAZQBzACAAKABlAC4AZwAuACwAIABcACIAawBcACIALAAgAFwAIgBNAFwAIgAsACAAXAAiAEcAXAAiACkALgBcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAE4AdQBtAGUAcgBpAGMAIAB2AGEAbAB1AGUAIAB0AG8AIABjAG8AbgB2AGUAcgB0AC4AXABuACAAIAAgAC0AIABkAGUAYwBwAHIAZQBjACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAARABlAGMAaQBtAGEAbAAgAHAAcgBlAGMAaQBzAGkAbwBuACAAdABvACAAcgBvAHUAbgBkACAAdABoAGUAIABvAHUAdABwAHUAdAAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAzACkALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAdAByAGkAbgBnACAAdwBpAHQAaAAgAHQAaABlACAAbgB1AG0AYgBlAHIAIABzAGMAYQBsAGUAZAAgAGEAbgBkACAAcwB1AGYAZgBpAHgAZQBkACAAdQBzAGkAbgBnACAAYwBvAG0AbQBvAG4AIABtAGUAdAByAGkAYwAgAG4AbwB0AGEAdABpAG8AbgAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABzAGMAYQBsAGkAbgBnACAAdQBwACAAdABvACAAMQAwAF4AMwAwAC4AXABuACAAIAAgAC0AIABTAHUAZgBmAGkAeAAgAHAAcgBvAGcAcgBlAHMAcwBpAG8AbgA6ACAAXAAiAGsAXAAiACwAIABcACIATQBcACIALAAgAFwAIgBHAFwAIgAsACAAXAAiAFQAXAAiACwAIABcACIAUABcACIALAAgAFwAIgBFAFwAIgAsACAAXAAiAFoAXAAiACwAIABcACIAWQBcACIALAAgAFwAIgBSAFwAIgAsACAAXAAiAFEAXAAiAFwAbgAgACAAIAAtACAAVgBhAGwAdQBlAHMAIAB1AG4AZABlAHIAIAAxADAAXgAzACAAcgBlAHQAdQByAG4AIAB0AGgAZQAgAHIAYQB3ACAAdgBhAGwAdQBlACAAdwBpAHQAaAAgAGEAIABkAGEAcwBoADoAIABgAFwAIgAUIFwAIgBgAFwAbgAgACAAIAAtACAARQB4AHQAcgBlAG0AZQBsAHkAIABsAGEAcgBnAGUAIAB2AGEAbAB1AGUAcwAgAGEAcgBlACAAYwBhAHAAcABlAGQAIABhAHQAIAB0AGgAZQAgAGgAaQBnAGgAZQBzAHQAIABrAG4AbwB3AG4AIABzAHUAZgBmAGkAeAAuAFwAbgAgACAAIAAtACAARABlAGMAaQBtAGEAbAAgAHIAbwB1AG4AZABpAG4AZwAgAGkAcwAgAG8AcAB0AGkAbwBuAGEAbAAgAGEAbgBkACAAZABlAGYAYQB1AGwAdABzACAAdABvACAAMwAgAGQAaQBnAGkAdABzAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADEAMgAzADQANQA2ACkAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAxADIAMwAuADQANQA2ACAAawBcACIAXABuACAAIAAgACAAIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAKAA5ADgANwA2ADUANAAzADIAMQAsACAAMgApACAAIAAgAJIhIABcACIAOQA4ADcALgA2ADUAIABNAFwAIgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAoADAALgAwADEANQApACAAIAAgACAAIAAgACAAIAAgACAAkiEgAFwAIgAwAC4AMAAxADUAIAAUIFwAIgBcAG4AKgAvAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAE0AQQBHAE4ASQBUAFUARABFACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIABbAGQAZQBjAHAAcgBlAGMAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABtAGEAeAAsACAAMwAwACwAIAAgAC8ALwAgAE0AYQB4AGkAbQB1AG0AIABwAG8AdwBlAHIAIABvAGYAIAB0AGUAbgAgAHQAbwAgAGEAdgBvAGkAZAAgAG8AdgBlAHIAZgBsAG8AdwBcAG4AIAAgACAAIAAgACAAIAAgAGQAZQBjAHAAcgBlAGMALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAZABlAGMAcAByAGUAYwApACwAIAAzACwAIABkAGUAYwBwAHIAZQBjACkALAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAHAAcgBlAGMAaQBzAGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAaQBuAHAAdQB0ACwAIABBAEIAUwAoAGkAbgBwAHUAdAApACwAIAAgAC8ALwAgAEEAYgBzAG8AbAB1AHQAZQAgAHYAYQBsAHUAZQAgAGYAbwByACAAbQBhAGcAbgBpAHQAdQBkAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAQwBhAGwAYwB1AGwAYQB0AGUAIAB0AGgAZQAgAG8AcgBkAGUAcgAgAG8AZgAgAG0AYQBnAG4AaQB0AHUAZABlAFwAbgAgACAAIAAgACAAIAAgACAAcABvAHcAZQByACwAIABUAFIAVQBOAEMAKABMAE8ARwAoAGkAbgBwAHUAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAYQB0AGUAZwBvAHIAeQAsACAATQBPAEQAKABwAG8AdwBlAHIALAAgADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsACAAUwBXAEkAVABDAEgAKABjAGEAdABlAGcAbwByAHkALAAgADAALAAgAHAAbwB3AGUAcgAsACAAMQAsACAAcABvAHcAZQByACAALQAgADEALAAgADIALAAgAHAAbwB3AGUAcgAgAC0AIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0ACwAIABJAEYAKABkAGkAdgBpAHMAbwByACAAPAA9ACAAbQBhAHgALAAgADEAMAAgAF4AIABkAGkAdgBpAHMAbwByACwAIAAxADAAIABeACAAbQBhAHgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABTAGMAYQBsAGUAZAAgAHYAYQBsAHUAZQAgAGEAbgBkACAAcwB1AGYAZgBpAHgAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUALAAgAGkAbgBwAHUAdAAgAC8AIABhAGQAagB1AHMAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAcwB1AGYAZgAsACAAUwBXAEkAVABDAEgAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAZABpAHYAaQBzAG8AcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAwACwAIABcACIAFCBcACIALAAgADMALAAgAFwAIgBrAFwAIgAsACAANgAsACAAXAAiAE0AXAAiACwAIAA5ACwAIABcACIARwBcACIALAAgADEAMgAsACAAXAAiAFQAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEANQAsACAAXAAiAFAAXAAiACwAIAAxADgALAAgAFwAIgBFAFwAIgAsACAAMgAxACwAIABcACIAWgBcACIALAAgADIANAAsACAAXAAiAFkAXAAiACwAIAAyADcALAAgAFwAIgBSAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAzADAALAAgAFwAIgBRAFwAIgAsACAAXAAiAD8APwBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIABcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEYAaQBuAGEAbAAgAG8AdQB0AHAAdQB0AFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQALAAgAEYASQBYAEUARAAoAHYAYQBsAHUAZQAsACAAZABlAGMAcAByAGUAYwAsACAAVABSAFUARQApACAAJgAgAFwAIgAgAFwAIgAgACYAIABzAHUAZgBmACwAXABuACAAIAAgACAAIAAgACAAIABvAHUAdABwAHUAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABOAFUATQBOAE8AVABFAF8AUABPAFcARQBSAFQAQQBHADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAG8AbgBsAHkAIAB0AGgAZQAgAGUAeABwAG8AbgBlAG4AdAAgAHQAYQBnACAAcABvAHIAdABpAG8AbgAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAZIHMAIABzAGMAaQBlAG4AdABpAGYAaQBjACAAbwByACAAcABvAHcAZQByAC0AbwBmAC0AdABlAG4AIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAAVABoAGkAcwAgAGQAbwBlAHMAIABuAG8AdAAgAGkAbgBjAGwAdQBkAGUAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgABQgIABqAHUAcwB0ACAAdABoAGUAIABzAHkAbQBiAG8AbABpAGMAIAByAGUAcAByAGUAcwBlAG4AdABhAHQAaQBvAG4AIABvAGYAIAB0AGgAZQAgAHMAYwBhAGwAZQAuAFwAbgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwA6AFwAbgAgACAAIAAtACAARQBpAHQAaABlAHIAIABhAG4AIABcACIARQArAG4AbgBcACIAIAB0AGEAZwAgAG8AcgAgAGEAIABcACIAMQAwAF4AbgBcACIAIABsAGEAYgBlAGwAIAByAGUAcAByAGUAcwBlAG4AdABpAG4AZwAgAHQAaABlACAAcABvAHcAZQByACAAbwBmACAAMQAwAC4AXABuAFwAbgAgACAAIABQAGEAcgBhAG0AZQB0AGUAcgBzADoAXABuACAAIAAgAC0AIABpAG4AcAB1AHQAIAAoAHIAZQBxAHUAaQByAGUAZAApADoAIABBACAAcABvAHMAaQB0AGkAdgBlACAAbgB1AG0AZQByAGkAYwAgAHYAYQBsAHUAZQAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgBcAG4AIAAgACAAIAAgACAAIAAwACAAKABkAGUAZgBhAHUAbAB0ACkAOgAgAFwAIgBFACsAbgBuAFwAIgAgAGYAbwByAG0AYQB0ACAAKABlAC4AZwAuACwAIABcACIARQArADAAMwBcACIAKQBcAG4AIAAgACAAIAAgACAAIAAxACAAIAAgACAAIAAgACAAIAAgADoAIABcACIAMQAwAF4AbgBcACIAIABmAG8AcgBtAGEAdAAgACgAZQAuAGcALgAsACAAXAAiADEAMABeADMAXAAiACkAXABuAFwAbgAgACAAIABOAG8AdABlAHMAOgBcAG4AIAAgACAALQAgAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABpAHMAIABpAG4AdABlAG4AZABlAGQAIABmAG8AcgAgAGwAYQBiAGUAbABpAG4AZwAsACAAZgBvAHIAbQBhAHQAdABpAG4AZwAsACAAbwByACAAYQBuAG4AbwB0AGEAdABpAG8AbgAgABQgIABuAG8AdAAgAGYAbwByACAAbQBhAHQAaAAuAFwAbgAgACAAIAAtACAAVABoAGUAIABjAG8AZQBmAGYAaQBjAGkAZQBuAHQAIAAoAG0AYQBuAHQAaQBzAHMAYQApACAAaQBzACAAbgBvAHQAIABpAG4AYwBsAHUAZABlAGQAIABpAG4AIAB0AGgAZQAgAHIAZQBzAHUAbAB0AC4AXABuACAAIAAgAC0AIABFAHEAdQBpAHYAYQBsAGUAbgB0ACAAdABvACAAZQB4AHQAcgBhAGMAdABpAG4AZwAgAHQAaABlACAAZQB4AHAAbwBuAGUAbgB0ACAAZgByAG8AbQAgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIABuAG8AdABhAHQAaQBvAG4ALgBcAG4AIAAgACAALQAgAE0AbwBkAGUAIAAyACAAZgByAG8AbQAgAGUAYQByAGwAaQBlAHIAIAB2AGUAcgBzAGkAbwBuAHMAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAbQBvAHYAZQBkACAAYQBzACAAcgBlAGQAdQBuAGQAYQBuAHQAIAAoAEUAeABjAGUAbAAgAHMAdQBwAHAAbwByAHQAcwAgAGkAdAAgAHYAaQBhACAAVABFAFgAVAAoAC4ALgAuACwAIABcACIAMAAuADAAMABFACsAMAAwAFwAIgApACkAXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlAHMAOgBcAG4AIAAgACAAIAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAA0ADUANgAwACkAIAAgACAAIAAgACAAIACSISAAXAAiAEUAKwAwADMAXAAiAFwAbgAgACAAIAAgACAATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAoADAALgAwADAAMQAyADMALAAgADEAKQAgAJIhIABcACIAMQAwAF4ALQAzAFwAIgBcAG4AIAAgACAAIAAgAFQARQBYAFQASgBPAEkATgAoAFwAIgBcACIALAAgACwAIABjAG8AZQBmAGYALAAgAE4AVQBNAE4ATwBUAEUAXwBQAE8AVwBFAFIAVABBAEcAKAB4ACkAKQAgAJIhIABGAHUAbABsACAAbABhAGIAZQBsAFwAbgBcAG4AIAAgACAAUwBlAGUAIABhAGwAcwBvADoAXABuACAAIAAgAC0AIABOAFUATQBOAE8AVABFAF8ATQBBAEcATgBJAFQAVQBEAEUAIAAUICAAYQBkAGQAcwAgAG0AZQB0AHIAaQBjACAAcwB1AGYAZgBpAHgAZQBzACAAbABpAGsAZQAgAFwAIgBrAFwAIgAsACAAXAAiAE0AXAAiACwAIABlAHQAYwAuAFwAbgAgACAAIAAtACAATgBVAE0ATgBPAFQARQBfAEUATgBHAEkATgBFAEUAUgBJAE4ARwAgABQgIABpAG4AYwBsAHUAZABlAHMAIAB0AGgAZQAgAGMAbwBlAGYAZgBpAGMAaQBlAG4AdAAgAHcAaQB0AGgAIABhACAAZgBpAHgAZQBkACAAZQB4AHAAbwBuAGUAbgB0AFwAbgAqAC8AXABuAFwAbgBcAG4ATgBVAE0ATgBPAFQARQBfAFAATwBXAEUAUgBUAEEARwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABTAGUAdAAgAGQAZQBmAGEAdQBsAHQAIABvAHUAdABwAHUAdAAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMAAgAJIhIABcACIARQArAG4AbgBcACIAIAAoAGQAZQBmAGEAdQBsAHQAKQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAG0AbwBkAGUAIAA9ACAAMQAgAJIhIABcACIAMQAwAF4AbgBcACIAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAMAAsACAAbQBvAGQAZQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABDAGEAbABjAHUAbABhAHQAZQAgAHQAaABlACAAYgBhAHMAZQAtADEAMAAgAGUAeABwAG8AbgBlAG4AdAAgAD0APQA9AFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAVABSAFUATgBDACgATABPAEcAMQAwACgALgAuAC4AKQApACAAZwBpAHYAZQBzACAAdQBzACAAdABoAGUAIABvAHIAZABlAHIALQBvAGYALQBtAGEAZwBuAGkAdAB1AGQAZQAgAHAAbwB3AGUAcgBcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBnACwAIABUAFIAVQBOAEMAKABMAE8ARwAxADAAKABpAG4AcAB1AHQAKQApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABGAG8AcgBtAGEAdAAgAGIAYQBzAGUAZAAgAG8AbgAgAG0AbwBkAGUAIAA9AD0APQBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAE0AbwBkAGUAIAAwACAAkiEgAHMAYwBpAGUAbgB0AGkAZgBpAGMAIAB0AGEAZwAgACgAZQAuAGcALgAsACAARQArADAAMwApAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAATQBvAGQAZQAgADEAIACSISAAbQBhAHQAaAAgAGUAeABwAHIAZQBzAHMAaQBvAG4AIAAoAGUALgBnAC4ALAAgADEAMABeADMAKQBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAFwAIgBFACsAXAAiACAAJgAgAFQARQBYAFQAKABtAGEAZwAsACAAXAAiADAAMABcACIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAxACwAIABcACIAMQAwAF4AXAAiACAAJgAgAG0AYQBnACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFwAIgBJAG4AdgBhAGwAaQBkACAAbQBvAGQAZQBcACIAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAPQA9AD0AIABSAGUAdAB1AHIAbgAgAHIAZQBzAHUAbAB0ACAAPQA9AD0AXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgBcAG4AXABuAE4AVQBNAF8ATwBOAEwAWQAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIABnAGUAdABfAGMAbwBkAGUAcwAsACAAQwBPAEQARQAoAE0ASQBEACgATABPAFcARQBSACgAaQBuAHAAdQB0ACkALAAgAFMARQBRAFUARQBOAEMARQAoAEwARQBOACgAaQBuAHAAdQB0ACkAKQAsACAAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG0AYQBrAGUAXwBuAHUAbQAsACAAUwBVAE0AKAAtAC0AQgBZAFIATwBXACgAZwBlAHQAXwBjAG8AZABlAHMALAAgAEwAQQBNAEIARABBACgAegAsACAAegAgAD0AIAA0ADYAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAGsAZQBfAG4AdQBtACAAPgA9ACAAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAEEATABVAEUAKABDAE8ATgBDAEEAVAAoAEIAWQBSAE8AVwAoAGcAZQB0AF8AYwBvAGQAZQBzACwAIABMAEEATQBCAEQAQQAoAHgALAAgAEkARgAoAEEATgBEACgATwBSACgAeAAgADwAIAA0ADgALAAgAHgAIAA+ACAANQA3ACkALAAgAHgAIAA8AD4AIAA0ADYAKQAsACAAXAAiAFwAIgAsACAAQwBIAEEAUgAoAHgAKQApACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAIwBOAE8ATgBFACEAXAAiAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBHAGUAbgBlAHIAYQBsACIALAAiAHQAZQB4AHQAIgA6ACIALwAqACAAUgBFAEMASQBQADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAFIAZQB0AHUAcgBuAHMAIAB0AGgAZQAgAHIAZQBjAGkAcAByAG8AYwBhAGwAIAAoAG0AdQBsAHQAaQBwAGwAaQBjAGEAdABpAHYAZQAgAGkAbgB2AGUAcgBzAGUAKQAgAG8AZgAgAGEAIABuAHUAbQBiAGUAcgAuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABBACAAcwBpAG4AZwBsAGUAIABkAGUAYwBpAG0AYQBsACAAdgBhAGwAdQBlADoAIAAxACAALwAgAGkAbgBwAHUAdABcAG4AXABuACAAIAAgAFAAYQByAGEAbQBlAHQAZQByAHMAOgBcAG4AIAAgACAALQAgAGkAbgBwAHUAdAAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAEEAbgB5ACAAbgBvAG4AegBlAHIAbwAgAG4AdQBtAGIAZQByAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABSAGUAdAB1AHIAbgBzACAAIwBEAEkAVgAvADAAIQAgAGkAZgAgAGkAbgBwAHUAdAAgAGkAcwAgAHoAZQByAG8AXABuACAAIAAgAC0AIABVAHMAZQBmAHUAbAAgAGYAbwByACAAZgBsAGkAcABwAGkAbgBnACAAZgByAGEAYwB0AGkAbwBuAHMAIABvAHIAIABjAG8AbgB2AGUAcgB0AGkAbgBnACAAcgBhAHQAZQBzACAAKABlAC4AZwAuACwAIABIAHoAIACUISAAcwBlAGMAbwBuAGQAcwApAFwAbgBcAG4AIAAgACAARQB4AGEAbQBwAGwAZQA6AFwAbgAgACAAIABSAEUAQwBJAFAAKAA0ACkAIACSISAAMAAuADIANQBcAG4AKgAvAFwAbgBcAG4AUgBFAEMASQBQACAAPQAgAEwAQQBNAEIARABBACgAaQBuAHAAdQB0ACwAIAAxACAALwAgAGkAbgBwAHUAdAApADsAXABuAFwAbgAvACoAIABGAFIAQQBDADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgBcAG4AIAAgACAAUgBlAHQAdQByAG4AcwAgAHQAaABlACAAZgByAGEAYwB0AGkAbwBuAGEAbAAgAHAAYQByAHQAIABvAGYAIABhACAAbgB1AG0AYgBlAHIALgBcAG4AXABuACAAIAAgAFIAZQB0AHUAcgBuAHMAOgBcAG4AIAAgACAAQQAgAHMAYwBhAGwAYQByACAAZABlAGMAaQBtAGEAbAAgAGIAZQB0AHcAZQBlAG4AIAAwACAAYQBuAGQAIAAxACAAKABvAHIAIAAtADEAIABhAG4AZAAgADAAIABpAGYAIABzAGkAZwBuAGUAZAAgAG0AbwBkAGUAIABpAHMAIABzAGUAbABlAGMAdABlAGQAKQAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAaQBuAHAAdQB0ACAAKAByAGUAcQB1AGkAcgBlAGQAKQA6ACAAVABoAGUAIABuAHUAbQBiAGUAcgAgAGYAcgBvAG0AIAB3AGgAaQBjAGgAIAB0AG8AIABlAHgAdAByAGEAYwB0ACAAdABoAGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAuAFwAbgAgACAAIAAtACAAbQBvAGQAZQAgACgAbwBwAHQAaQBvAG4AYQBsACkAOgAgAE8AdQB0AHAAdQB0ACAAbQBvAGQAZQAgACgAZABlAGYAYQB1AGwAdAAgAD0AIAAwACkAXABuACAAIAAgACAAIAAgACAALQAgADAAOgAgAEEAbAB3AGEAeQBzACAAcgBlAHQAdQByAG4AIABwAG8AcwBpAHQAaQB2AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgACgAZABlAGYAYQB1AGwAdAApAFwAbgAgACAAIAAgACAAIAAgAC0AIAAxADoAIABQAHIAZQBzAGUAcgB2AGUAIAB0AGgAZQAgAHMAaQBnAG4AIABvAGYAIAB0AGgAZQAgAGkAbgBwAHUAdAAgACgAZQAuAGcALgAsACAALQAzAC4AMgA1ACAAkiEgAC0AMAAuADIANQApAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABDAG8AbQBwAGwAZQBtAGUAbgB0AHMAIABFAHgAYwBlAGwAGSBzACAAUQBVAE8AVABJAEUATgBUACAAYQBuAGQAIABUAFIAVQBOAEMAIABmAHUAbgBjAHQAaQBvAG4AcwAuAFwAbgAgACAAIAAtACAAVQBzAGUAZgB1AGwAIABmAG8AcgAgAGkAcwBvAGwAYQB0AGkAbgBnACAAbgBvAG4ALQBpAG4AdABlAGcAZQByACAAcABhAHIAdABzACAAbwBmACAAdgBhAGwAdQBlAHMALgBcAG4AIAAgACAALQAgAEMAYQBuACAAZABpAHMAdABpAG4AZwB1AGkAcwBoACAAdwBoAGUAdABoAGUAcgAgAGEAIABuAHUAbQBiAGUAcgAgAGkAcwAgAGoAdQBzAHQAIAB1AG4AZABlAHIAIABvAHIAIABqAHUAcwB0ACAAbwB2AGUAcgAgAGEAbgAgAGkAbgB0AGUAZwBlAHIAIABiAGEAcwBlAGQAIABvAG4AIABzAGkAZwBuAC4AXABuAFwAbgAgACAAIABFAHgAYQBtAHAAbABlADoAXABuACAAIAAgAEYAUgBBAEMAKAAtADMALgAyADUAKQAgAJIhIAAwAC4AMgA1ACAAIABcAG4AIAAgACAARgBSAEEAQwAoAC0AMwAuADIANQAsACAAMQApACAAkiEgAC0AMAAuADIANQBcAG4AKgAvAFwAbgBcAG4ARgBSAEEAQwAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARABlAGYAYQB1AGwAdAAgAG0AbwBkAGUAIAB0AG8AIAAwACAAaQBmACAAbwBtAGkAdAB0AGUAZAAgAG8AcgAgAGkAbgB2AGEAbABpAGQAXABuACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAIABJAEYAKABPAFIAKABJAFMATwBNAEkAVABUAEUARAAoAG0AbwBkAGUAKQAsACAAbQBvAGQAZQAgAD4AIAAxACkALAAgADAALAAgAG0AbwBkAGUAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAEMAbwBtAHAAdQB0AGUAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcABhAHIAdAAgAGIAeQAgAHMAdQBiAHQAcgBhAGMAdABpAG4AZwAgAGkAbgB0AGUAZwBlAHIAIABwAG8AcgB0AGkAbwBuAFwAbgAgACAAIAAgACAAIAAgACAAZgByAGEAYwBfAHAAYQByAHQALAAgAGkAbgBwAHUAdAAgAC0AIABUAFIAVQBOAEMAKABpAG4AcAB1AHQAKQAsAFwAbgBcAG4AIAAgACAAIAAgACAAIAAgAC8ALwAgAFIAZQB0AHUAcgBuACAAcwBpAGcAbgBlAGQAIABvAHIAIABhAGIAcwBvAGwAdQB0AGUAIAB2AGEAbAB1AGUAIABkAGUAcABlAG4AZABpAG4AZwAgAG8AbgAgAG0AbwBkAGUAXABuACAAIAAgACAAIAAgACAAIABJAEYAKABtAG8AZABlACAAPQAgADEALAAgAGYAcgBhAGMAXwBwAGEAcgB0ACwAIABBAEIAUwAoAGYAcgBhAGMAXwBwAGEAcgB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAXABuAFwAbgAvACoAIABSAE8ATwBUADoAXABuACAAIAAgAFAAdQByAHAAbwBzAGUAOgAgAEMAYQBsAGMAdQBsAGEAdABlAHMAIAB0AGgAZQAgAHgALQB0AGgAIAByAG8AbwB0ACAAbwBmACAAYQAgAG4AdQBtAGIAZQByACAAKABvAHIAIABzAHEAdQBhAHIAZQAgAHIAbwBvAHQAIABpAGYAIABuAG8AIAByAG8AbwB0ACAAaQBzACAAcwBwAGUAYwBpAGYAaQBlAGQAKQAuAFwAbgAgACAAIABSAGUAdAB1AHIAbgBzADoAIABBACAAZABlAGMAaQBtAGEAbAAgAG4AdQBtAGIAZQByACAAcgBlAHAAcgBlAHMAZQBuAHQAaQBuAGcAIAB0AGgAZQAgAHIAbwBvAHQAIAByAGUAcwB1AGwAdAAuAFwAbgBcAG4AIAAgACAAUABhAHIAYQBtAGUAdABlAHIAcwA6AFwAbgAgACAAIAAtACAAbgAgACgAcgBlAHEAdQBpAHIAZQBkACkAOgAgAFQAaABlACAAbgB1AG0AYgBlAHIAIAB0AG8AIAB0AGEAawBlACAAdABoAGUAIAByAG8AbwB0ACAAbwBmAC4AXABuACAAIAAgAC0AIAB4ACAAKABvAHAAdABpAG8AbgBhAGwAKQA6ACAAVABoAGUAIAByAG8AbwB0ACAAZABlAGcAcgBlAGUALgAgAEQAZQBmAGEAdQBsAHQAcwAgAHQAbwAgADIAIAAoAHMAcQB1AGEAcgBlACAAcgBvAG8AdAApACAAaQBmACAAbwBtAGkAdAB0AGUAZAAuAFwAbgBcAG4AIAAgACAATgBvAHQAZQBzADoAXABuACAAIAAgAC0AIABTAHUAcABwAG8AcgB0AHMAIABmAHIAYQBjAHQAaQBvAG4AYQBsACAAcgBvAG8AdABzACAAKABlAC4AZwAuACwAIABjAHUAYgBlACAAcgBvAG8AdAAsACAAMQAuADUAdABoACAAcgBvAG8AdAApAC4AXABuACAAIAAgAC0AIABJAGYAIAB4ACAAaQBzACAAbwBtAGkAdAB0AGUAZAAsACAAZABlAGYAYQB1AGwAdABzACAAdABvACAAUwBRAFIAVAAoAG4AKQAuAFwAbgAgACAAIAAtACAATgBlAGcAYQB0AGkAdgBlACAAYgBhAHMAZQBzACAAdwBpAHQAaAAgAGYAcgBhAGMAdABpAG8AbgBhAGwAIABlAHgAcABvAG4AZQBuAHQAcwAgAHcAaQBsAGwAIAByAGUAdAB1AHIAbgAgAGUAcgByAG8AcgBzACAAKABFAHgAYwBlAGwAIABsAGkAbQBpAHQAYQB0AGkAbwBuACkALgBcAG4AIAAgACAALQAgAE4AbwAgAGkAbgB0AGUAcgBuAGEAbAAgAHYAYQBsAGkAZABhAHQAaQBvAG4AIABmAG8AcgAgAGMAbwBtAHAAbABlAHgAIAByAG8AbwB0ACAAaABhAG4AZABsAGkAbgBnACAAaQBzACAAcABlAHIAZgBvAHIAbQBlAGQALgBcAG4AXABuACAAIAAgAEUAeABhAG0AcABsAGUAOgBcAG4AIAAgACAAUgBPAE8AVAAoADEANgApACAAkiEgADQAXABuACAAIAAgAFIATwBPAFQAKAAyADcALAAgADMAKQAgAJIhIAAzAFwAbgAgACAAIABSAE8ATwBUACgAOAAxACwAIAAwAC4ANQApACAAkiEgADkAXABuACoALwBcAG4AXABuAFIATwBPAFQAIAA9ACAATABBAE0AQgBEAEEAKABuACwAIABbAHgAXQAsAFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABEAGUAZgBhAHUAbAB0ACAAdABvACAAcwBxAHUAYQByAGUAIAByAG8AbwB0ACAAaQBmACAAcgBvAG8AdAAgAGQAZQBnAHIAZQBlACAAaQBzACAAbgBvAHQAIABwAHIAbwB2AGkAZABlAGQAXABuACAAIAAgACAAIAAgACAAIAByAG8AbwB0AF8AcgBlAHMAdQBsAHQALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAeAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAUQBSAFQAKABuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgAgAF4AIAAoADEAIAAvACAAeAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcgBvAG8AdABfAHIAZQBzAHUAbAB0AFwAbgAgACAAIAAgACkAXABuACkAOwBcAG4AXABuAEYATwBSAE0AVABFAFgAVAAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBwAHUAdAAsACAAWwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAcgBlAGMAcAB0ACwAIABGAE8AUgBNAFUATABBAFQARQBYAFQAKABpAG4AcAB1AHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbQBvAGQAZQAsACAASQBGACgATwBSACgASQBTAE8ATQBJAFQAVABFAEQAKABtAG8AZABlACkALAAgAG0AbwBkAGUAIAA+ACAAMwApACwAIAAyACwAIABtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAaABlAGMAawB2AGEAbAAsACAASQBTAE4AVQBNAEIARQBSACgAUwBFAEEAUgBDAEgAKABcACIAKABcACIALAAgAHIAZQBjAHAAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgAGMAZQBsAGwAXwBuAGEAbQBlACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAQwBFAEwATAAoAFwAIgBhAGQAZAByAGUAcwBzAFwAIgAsACAAaQBuAHAAdQB0ACkALABcACIAJABcACIALABcACIAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAGwAaQBzAHQALAAgAEkARgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABOAE8AVAAoAGMAaABlAGMAawB2AGEAbAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBjAHAAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAEUAWABUAFMAUABMAEkAVAAoAHIAZQBjAHAAdAAsACAAXAAiACkAXAAiACkAXABuACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAASQBGACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGMAaABlAGMAawB2AGEAbAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABCAFkAQwBPAEwAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGkAcwB0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKAB4ACwAIABUAEUAWABUAEIARQBGAE8AUgBFACgAeAAsACAAXAAiACgAXAAiACwAIAAsACAALAAgACwAIABcACIAXAAiACkAKQBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABsAGkAcwB0AFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAYwBvAGwAbABlAGMAdABlAGQALAAgAFQARQBYAFQASgBPAEkATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABcACIAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkATgBEAEUAWAAoAHIAZQBzAHUAbAB0ACwAIABTAEUAUQBVAEUATgBDAEUAKABDAE8AVQBOAFQAQQAoAHIAZQBzAHUAbAB0ACkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAcABhAHIAZQBuAHQAaABlAHQAaQBjAGEAbAAsACAAVABFAFgAVABBAEYAVABFAFIAKABUAEUAWABUAEIARQBGAE8AUgBFACgAQwBPAE4AQwBBAFQAKABjAGUAbABsAF8AbgBhAG0AZQAsACAAXAAiADoAPQAgAFwAIgAsACAAUwBVAEIAUwBUAEkAVABVAFQARQAoAGMAbwBsAGwAZQBjAHQAZQBkACwAIABcACIAPQBcACIALAAgAFwAIgBcACIAKQApACwAIABcACIAKABcACIAKQAsACAAXAAiACAAXAAiACkALABcAG4AIAAgACAAIAAgACAAIAAgAG8AdQB0AHAAdQB0ACwAIABTAFcASQBUAEMASAAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAG8AZABlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADAALAAgAGMAbwBsAGwAZQBjAHQAZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALAAgAEMATwBOAEMAQQBUACgAYwBlAGwAbABfAG4AYQBtAGUALAAgAFwAIgA6AD0AIABcACIALAAgAFMAVQBCAFMAVABJAFQAVQBUAEUAKABjAG8AbABsAGUAYwB0AGUAZAAsACAAXAAiAD0AXAAiACwAIABcACIAXAAiACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAyACwAIABDAE8ATgBDAEEAVAAoAGMAZQBsAGwAXwBuAGEAbQBlACwAIABcACIAOgA9ACAAXAAiACwAIABTAFUAQgBTAFQASQBUAFUAVABFACgAcgBlAGMAcAB0ACwAIABcACIAPQBcACIALAAgAFwAIgBcACIAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgADMALAAgAEYATwBSAE0AVQBMAEEAVABFAFgAVAAoAGkAbgBwAHUAdAApAFwAbgAgACAAIAAgACAAIAAgACAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAbwB1AHQAcAB1AHQAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgAiAH0AXQAsACIAcAByAG8AagBlAGMAdABOAGEAbQBlAHMAIgA6AFsAIgBOAFUATQBOAE8AVABFAF8ARQBOAEcASQBOAEUARQBSAEkATgBHACIALAAiAE4AVQBNAE4ATwBUAEUAXwBNAEEARwBOAEkAVABVAEQARQAiACwAIgBOAFUATQBOAE8AVABFAF8AUABPAFcARQBSAFQAQQBHACIALAAiAE4AVQBNAF8ATwBOAEwAWQAiACwAIgBHAGUAbgBlAHIAYQBsAC4AUgBFAEMASQBQACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAFIAQQBDACIALAAiAEcAZQBuAGUAcgBhAGwALgBSAE8ATwBUACIALAAiAEcAZQBuAGUAcgBhAGwALgBGAE8AUgBNAFQARQBYAFQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
